--- a/data/china_ie_partner/2016-04.xlsx
+++ b/data/china_ie_partner/2016-04.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Downloads/china_ie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Documents/GitHub/ada-2020-project-milestone-p3-p3_lovela-data-science/data/china_ie_partner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5998C15D-46C2-DF4C-A678-76EFCD66A724}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A06C62-C298-614C-ADB4-8122A13D2BDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16400" xr2:uid="{8F74DAF6-1138-2E45-873E-CC3CE452E3A4}"/>
   </bookViews>
@@ -36,732 +36,9 @@
     <t>进口</t>
   </si>
   <si>
-    <t>阿富汗</t>
-  </si>
-  <si>
-    <t>巴林</t>
-  </si>
-  <si>
-    <t>孟加拉国</t>
-  </si>
-  <si>
-    <t>不丹</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>文莱</t>
-  </si>
-  <si>
-    <t>缅甸</t>
-  </si>
-  <si>
-    <t>柬埔寨</t>
-  </si>
-  <si>
-    <t>塞浦路斯</t>
-  </si>
-  <si>
-    <t>朝鲜</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>印度尼西亚</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>约旦</t>
-  </si>
-  <si>
-    <t>科威特</t>
-  </si>
-  <si>
-    <t>老挝</t>
-  </si>
-  <si>
-    <t>黎巴嫩</t>
-  </si>
-  <si>
-    <t>澳门</t>
-  </si>
-  <si>
-    <t>马尔代夫</t>
-  </si>
-  <si>
-    <t>蒙古</t>
-  </si>
-  <si>
-    <t>尼泊尔联邦民主共和国</t>
-  </si>
-  <si>
-    <t>阿曼</t>
-  </si>
-  <si>
-    <t>巴基斯坦</t>
-  </si>
-  <si>
-    <t>巴勒斯坦</t>
-  </si>
-  <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
-    <t>卡塔尔</t>
-  </si>
-  <si>
-    <t>沙特阿拉伯</t>
-  </si>
-  <si>
-    <t>新加坡</t>
-  </si>
-  <si>
-    <t>韩国</t>
-  </si>
-  <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>泰国</t>
-  </si>
-  <si>
-    <t>土耳其</t>
-  </si>
-  <si>
-    <t>阿联酋</t>
-  </si>
-  <si>
-    <t>也门</t>
-  </si>
-  <si>
-    <t>越南</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>东帝汶</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>吉尔吉斯斯坦</t>
-  </si>
-  <si>
-    <t>塔吉克斯坦</t>
-  </si>
-  <si>
-    <t>土库曼斯坦</t>
-  </si>
-  <si>
-    <t>乌兹别克斯坦</t>
-  </si>
-  <si>
-    <t>亚洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>阿尔及利亚</t>
-  </si>
-  <si>
-    <t>安哥拉</t>
-  </si>
-  <si>
-    <t>贝宁</t>
-  </si>
-  <si>
-    <t>博茨瓦纳</t>
-  </si>
-  <si>
-    <t>布隆迪</t>
-  </si>
-  <si>
-    <t>喀麦隆</t>
-  </si>
-  <si>
-    <t>加那利群岛</t>
-  </si>
-  <si>
-    <t>佛得角</t>
-  </si>
-  <si>
-    <t>中非</t>
-  </si>
-  <si>
-    <t>塞卜泰(休达)</t>
-  </si>
-  <si>
-    <t>乍得</t>
-  </si>
-  <si>
-    <t>科摩罗</t>
-  </si>
-  <si>
-    <t>刚果(布)</t>
-  </si>
-  <si>
-    <t>吉布提</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>赤道几内亚</t>
-  </si>
-  <si>
-    <t>埃塞俄比亚</t>
-  </si>
-  <si>
-    <t>加蓬</t>
-  </si>
-  <si>
-    <t>冈比亚</t>
-  </si>
-  <si>
-    <t>加纳</t>
-  </si>
-  <si>
-    <t>几内亚</t>
-  </si>
-  <si>
-    <t>几内亚比绍</t>
-  </si>
-  <si>
-    <t>科特迪瓦</t>
-  </si>
-  <si>
-    <t>肯尼亚</t>
-  </si>
-  <si>
-    <t>利比里亚</t>
-  </si>
-  <si>
-    <t>利比亚</t>
-  </si>
-  <si>
-    <t>马达加斯加</t>
-  </si>
-  <si>
-    <t>马拉维</t>
-  </si>
-  <si>
-    <t>马里</t>
-  </si>
-  <si>
-    <t>毛里塔尼亚</t>
-  </si>
-  <si>
-    <t>毛里求斯</t>
-  </si>
-  <si>
-    <t>摩洛哥</t>
-  </si>
-  <si>
-    <t>莫桑比克</t>
-  </si>
-  <si>
-    <t>纳米比亚</t>
-  </si>
-  <si>
-    <t>尼日尔</t>
-  </si>
-  <si>
-    <t>尼日利亚</t>
-  </si>
-  <si>
-    <t>留尼汪</t>
-  </si>
-  <si>
-    <t>卢旺达</t>
-  </si>
-  <si>
-    <t>圣多美和普林西比</t>
-  </si>
-  <si>
-    <t>塞内加尔</t>
-  </si>
-  <si>
-    <t>塞舌尔</t>
-  </si>
-  <si>
-    <t>塞拉利昂</t>
-  </si>
-  <si>
-    <t>索马里</t>
-  </si>
-  <si>
-    <t>南非</t>
-  </si>
-  <si>
-    <t>西撒哈拉</t>
-  </si>
-  <si>
-    <t>苏丹</t>
-  </si>
-  <si>
-    <t>坦桑尼亚</t>
-  </si>
-  <si>
-    <t>多哥</t>
-  </si>
-  <si>
-    <t>突尼斯</t>
-  </si>
-  <si>
-    <t>乌干达</t>
-  </si>
-  <si>
-    <t>布基纳法索</t>
-  </si>
-  <si>
-    <t>刚果(金)</t>
-  </si>
-  <si>
-    <t>赞比亚</t>
-  </si>
-  <si>
-    <t>津巴布韦</t>
-  </si>
-  <si>
-    <t>莱索托</t>
-  </si>
-  <si>
-    <t>梅利利亚</t>
-  </si>
-  <si>
-    <t>斯威士兰</t>
-  </si>
-  <si>
-    <t>厄立特里亚</t>
-  </si>
-  <si>
-    <t>马约特</t>
-  </si>
-  <si>
-    <t>南苏丹共和国</t>
-  </si>
-  <si>
-    <t>非洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>爱尔兰</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
-    <t>荷兰</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>安道尔</t>
-  </si>
-  <si>
-    <t>奥地利</t>
-  </si>
-  <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
-    <t>芬兰</t>
-  </si>
-  <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>冰岛</t>
-  </si>
-  <si>
-    <t>列支敦士登</t>
-  </si>
-  <si>
-    <t>马耳他</t>
-  </si>
-  <si>
-    <t>摩纳哥</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>波兰</t>
-  </si>
-  <si>
-    <t>罗马尼亚</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>瑞典</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>拉脱维亚</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>格鲁吉亚</t>
-  </si>
-  <si>
-    <t>亚美尼亚</t>
-  </si>
-  <si>
-    <t>阿塞拜疆</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>俄罗斯联邦</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>斯洛文尼亚</t>
-  </si>
-  <si>
-    <t>克罗地亚</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>前南马其顿</t>
-  </si>
-  <si>
-    <t>波黑</t>
-  </si>
-  <si>
-    <t>梵蒂冈城国</t>
-  </si>
-  <si>
-    <t>法罗群岛</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>黑山</t>
-  </si>
-  <si>
-    <t>欧洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>拉丁美洲</t>
-  </si>
-  <si>
-    <t>安提瓜和巴布达</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>阿鲁巴</t>
-  </si>
-  <si>
-    <t>巴哈马</t>
-  </si>
-  <si>
-    <t>巴巴多斯</t>
-  </si>
-  <si>
-    <t>伯利兹</t>
-  </si>
-  <si>
-    <t>玻利维亚</t>
-  </si>
-  <si>
-    <t>博内尔</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>开曼群岛</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
-    <t>多米尼克</t>
-  </si>
-  <si>
-    <t>哥斯达黎加</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>库腊索岛</t>
-  </si>
-  <si>
-    <t>多米尼加共和国</t>
-  </si>
-  <si>
-    <t>厄瓜多尔</t>
-  </si>
-  <si>
-    <t>法属圭亚那</t>
-  </si>
-  <si>
-    <t>格林纳达</t>
-  </si>
-  <si>
-    <t>瓜德罗普</t>
-  </si>
-  <si>
-    <t>危地马拉</t>
-  </si>
-  <si>
-    <t>圭亚那</t>
-  </si>
-  <si>
-    <t>海地</t>
-  </si>
-  <si>
-    <t>洪都拉斯</t>
-  </si>
-  <si>
-    <t>牙买加</t>
-  </si>
-  <si>
-    <t>马提尼克</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>蒙特塞拉特</t>
-  </si>
-  <si>
-    <t>尼加拉瓜</t>
-  </si>
-  <si>
-    <t>巴拿马</t>
-  </si>
-  <si>
-    <t>巴拉圭</t>
-  </si>
-  <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>萨巴</t>
-  </si>
-  <si>
-    <t>圣卢西亚</t>
-  </si>
-  <si>
-    <t>圣马丁岛</t>
-  </si>
-  <si>
-    <t>圣文森特和格林纳丁斯</t>
-  </si>
-  <si>
-    <t>萨尔瓦多</t>
-  </si>
-  <si>
-    <t>苏里南</t>
-  </si>
-  <si>
-    <t>特立尼达和多巴哥</t>
-  </si>
-  <si>
-    <t>特克斯和凯科斯群岛</t>
-  </si>
-  <si>
-    <t>乌拉圭</t>
-  </si>
-  <si>
-    <t>委内瑞拉</t>
-  </si>
-  <si>
-    <t>英属维尔京群岛</t>
-  </si>
-  <si>
-    <t>圣基茨和尼维斯</t>
-  </si>
-  <si>
-    <t>圣皮埃尔和密克隆</t>
-  </si>
-  <si>
-    <t>荷属安的列斯</t>
-  </si>
-  <si>
-    <t>拉丁美洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>北美洲</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>格陵兰</t>
-  </si>
-  <si>
-    <t>百慕大</t>
-  </si>
-  <si>
-    <t>北美洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
-    <t>库克群岛</t>
-  </si>
-  <si>
-    <t>斐济</t>
-  </si>
-  <si>
-    <t>盖比群岛</t>
-  </si>
-  <si>
-    <t>马克萨斯群岛</t>
-  </si>
-  <si>
-    <t>瑙鲁</t>
-  </si>
-  <si>
-    <t>新喀里多尼亚</t>
-  </si>
-  <si>
-    <t>瓦努阿图</t>
-  </si>
-  <si>
-    <t>新西兰</t>
-  </si>
-  <si>
-    <t>诺福克岛</t>
-  </si>
-  <si>
-    <t>巴布亚新几内亚</t>
-  </si>
-  <si>
-    <t>社会群岛</t>
-  </si>
-  <si>
-    <t>所罗门群岛</t>
-  </si>
-  <si>
-    <t>汤加</t>
-  </si>
-  <si>
-    <t>土阿莫土群岛</t>
-  </si>
-  <si>
-    <t>土布艾群岛</t>
-  </si>
-  <si>
-    <t>萨摩亚</t>
-  </si>
-  <si>
-    <t>基里巴斯</t>
-  </si>
-  <si>
-    <t>图瓦卢</t>
-  </si>
-  <si>
-    <t>密克罗尼西亚联邦</t>
-  </si>
-  <si>
-    <t>马绍尔群岛</t>
-  </si>
-  <si>
-    <t>帕劳</t>
-  </si>
-  <si>
-    <t>法属波利尼西亚</t>
-  </si>
-  <si>
-    <t>瓦利斯和浮图纳</t>
-  </si>
-  <si>
-    <t>大洋洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>国(地)别不详的</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -769,13 +46,980 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>中国台湾</t>
-  </si>
-  <si>
-    <t>中国香港</t>
-  </si>
-  <si>
-    <t>马来西亚 </t>
+    <t>Afghanistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahrian</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bhutan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brunei</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myanmar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cambodia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyprus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea,DPR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Hong Kong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indonesia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iran</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iraq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Israel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jordan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kuwait</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lao PDR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lebanon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Macau</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malaysia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maldives</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mongolia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nepal,FDR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oman</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pakistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palestine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Philippines</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qatar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singapore</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea,Rep.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thailand</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkey</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yemen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Taiwan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Asia nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Africa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algeria</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angola</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Botswana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burundi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cameroon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canary Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central African Rep.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceuta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chad</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comoros</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Djibouti</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egypt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gabon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kenya</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liberia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Libyan Arab Jamahiriya</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madagascar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malawi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mali</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritius</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Morocco</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mozambique</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namibia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Niger</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nigeria</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reunion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rwanda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senegal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seychelles</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Somalia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Africa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sudan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanzania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Togo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tunisia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uganda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo,DR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zambia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesotho</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melilla</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swaziland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eritrea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mayotte</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Republic of South Sudan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Afr.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belgium</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Denmark</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germany</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>France</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ireland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Italy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greece</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portugal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spain</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Albania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andorra</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Austria</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hungary</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iceland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monaco</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norway</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Romania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Marino</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweden</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switzerland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estonia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latvia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lithuania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Georgia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armenia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belarus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moldova</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukraine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovenia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Croatia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovakia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macedonia,FYR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bosnia and Hercegovina</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vatican City State</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serbia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montenegro</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Eur.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latin America</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argentina</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aruba</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahamas</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barbados</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belize</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bolivia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bonaire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brazil</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colombia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominica</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cuba</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curacao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ecuador</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>French Guiana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grenada</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guatemala</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guyana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haiti</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honduras</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jamaica</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Martinique</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mexico</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montserrat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panama</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paraguay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peru</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saba</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Martin Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Vincent&amp;Grenadines</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>El Salvador</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suriname</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turks&amp;Caicos Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uruguay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venezuela</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virgin Islands,British</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Kitts&amp;Nevis</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Pierre&amp;Miquelon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.L.Amer.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>North America</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canada</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>United States</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greenland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bermuda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.N.Amer.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oceania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fiji</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambier Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marquesas Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nauru</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Zealand</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Society Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tonga</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuamotu Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tubai Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samoa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kiribati</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micronesia,FS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palau</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Ocean.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Countries(reg.)unknown</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -826,10 +1070,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1193,7 +1438,7 @@
   <dimension ref="A1:J248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A245"/>
+      <selection activeCell="D2" sqref="D2:D245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1209,24 +1454,24 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>245</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>246</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
+      <c r="A2" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>18799</v>
+        <v>28840</v>
       </c>
       <c r="C2" s="2">
-        <v>18770</v>
+        <v>28795</v>
       </c>
       <c r="D2" s="3">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E2" s="5">
         <v>2016</v>
@@ -1240,17 +1485,17 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
+      <c r="A3" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>46077</v>
+        <v>70701</v>
       </c>
       <c r="C3" s="2">
-        <v>44221</v>
+        <v>67853</v>
       </c>
       <c r="D3" s="2">
-        <v>1855</v>
+        <v>2847</v>
       </c>
       <c r="E3" s="5">
         <v>2016</v>
@@ -1264,17 +1509,17 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
+      <c r="A4" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>866685</v>
+        <v>1330047</v>
       </c>
       <c r="C4" s="2">
-        <v>821501</v>
+        <v>1260596</v>
       </c>
       <c r="D4" s="2">
-        <v>45185</v>
+        <v>69451</v>
       </c>
       <c r="E4" s="5">
         <v>2016</v>
@@ -1288,17 +1533,17 @@
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="21">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3">
-        <v>979</v>
-      </c>
-      <c r="C5" s="3">
-        <v>978</v>
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1503</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1502</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="5">
         <v>2016</v>
@@ -1312,17 +1557,17 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="21">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
+      <c r="A6" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>44578</v>
+        <v>68439</v>
       </c>
       <c r="C6" s="2">
-        <v>39727</v>
+        <v>60995</v>
       </c>
       <c r="D6" s="2">
-        <v>4851</v>
+        <v>7444</v>
       </c>
       <c r="E6" s="5">
         <v>2016</v>
@@ -1336,17 +1581,17 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
+      <c r="A7" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>658563</v>
+        <v>1009449</v>
       </c>
       <c r="C7" s="2">
-        <v>456872</v>
+        <v>699287</v>
       </c>
       <c r="D7" s="2">
-        <v>201691</v>
+        <v>310162</v>
       </c>
       <c r="E7" s="5">
         <v>2016</v>
@@ -1360,17 +1605,17 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
+      <c r="A8" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>274949</v>
+        <v>421898</v>
       </c>
       <c r="C8" s="2">
-        <v>233100</v>
+        <v>357653</v>
       </c>
       <c r="D8" s="2">
-        <v>41850</v>
+        <v>64244</v>
       </c>
       <c r="E8" s="5">
         <v>2016</v>
@@ -1384,17 +1629,17 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="21">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
+      <c r="A9" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>22971</v>
+        <v>35259</v>
       </c>
       <c r="C9" s="2">
-        <v>20340</v>
+        <v>31214</v>
       </c>
       <c r="D9" s="2">
-        <v>2631</v>
+        <v>4045</v>
       </c>
       <c r="E9" s="5">
         <v>2016</v>
@@ -1408,17 +1653,17 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="21">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
+      <c r="A10" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>284336</v>
+        <v>436478</v>
       </c>
       <c r="C10" s="2">
-        <v>175114</v>
+        <v>268780</v>
       </c>
       <c r="D10" s="2">
-        <v>109222</v>
+        <v>167698</v>
       </c>
       <c r="E10" s="5">
         <v>2016</v>
@@ -1433,16 +1678,16 @@
     </row>
     <row r="11" spans="1:10" ht="21">
       <c r="A11" s="6" t="s">
-        <v>248</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>17340920</v>
+        <v>26614525</v>
       </c>
       <c r="C11" s="2">
-        <v>16000044</v>
+        <v>24556589</v>
       </c>
       <c r="D11" s="2">
-        <v>1340875</v>
+        <v>2057936</v>
       </c>
       <c r="E11" s="5">
         <v>2016</v>
@@ -1456,17 +1701,17 @@
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="21">
-      <c r="A12" s="4" t="s">
-        <v>13</v>
+      <c r="A12" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>3544085</v>
+        <v>5440254</v>
       </c>
       <c r="C12" s="2">
-        <v>2883035</v>
+        <v>4425102</v>
       </c>
       <c r="D12" s="2">
-        <v>661049</v>
+        <v>1015152</v>
       </c>
       <c r="E12" s="5">
         <v>2016</v>
@@ -1480,17 +1725,17 @@
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="4" t="s">
-        <v>14</v>
+      <c r="A13" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>2982716</v>
+        <v>4577622</v>
       </c>
       <c r="C13" s="2">
-        <v>1913281</v>
+        <v>2935884</v>
       </c>
       <c r="D13" s="2">
-        <v>1069434</v>
+        <v>1641738</v>
       </c>
       <c r="E13" s="5">
         <v>2016</v>
@@ -1504,17 +1749,17 @@
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="4" t="s">
-        <v>15</v>
+      <c r="A14" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>1595733</v>
+        <v>2453730</v>
       </c>
       <c r="C14" s="2">
-        <v>828118</v>
+        <v>1274291</v>
       </c>
       <c r="D14" s="2">
-        <v>767615</v>
+        <v>1179439</v>
       </c>
       <c r="E14" s="5">
         <v>2016</v>
@@ -1528,17 +1773,17 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="4" t="s">
-        <v>16</v>
+      <c r="A15" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>936504</v>
+        <v>1436826</v>
       </c>
       <c r="C15" s="2">
-        <v>387453</v>
+        <v>594361</v>
       </c>
       <c r="D15" s="2">
-        <v>549051</v>
+        <v>842465</v>
       </c>
       <c r="E15" s="5">
         <v>2016</v>
@@ -1552,17 +1797,17 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="21">
-      <c r="A16" s="4" t="s">
-        <v>17</v>
+      <c r="A16" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>657742</v>
+        <v>1009472</v>
       </c>
       <c r="C16" s="2">
-        <v>478644</v>
+        <v>734578</v>
       </c>
       <c r="D16" s="2">
-        <v>179098</v>
+        <v>274894</v>
       </c>
       <c r="E16" s="5">
         <v>2016</v>
@@ -1576,17 +1821,17 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="21">
-      <c r="A17" s="4" t="s">
-        <v>18</v>
+      <c r="A17" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>14394132</v>
+        <v>22133063</v>
       </c>
       <c r="C17" s="2">
-        <v>6441565</v>
+        <v>9895895</v>
       </c>
       <c r="D17" s="2">
-        <v>7952567</v>
+        <v>12237168</v>
       </c>
       <c r="E17" s="5">
         <v>2016</v>
@@ -1600,17 +1845,17 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="21">
-      <c r="A18" s="4" t="s">
-        <v>19</v>
+      <c r="A18" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>204315</v>
+        <v>313521</v>
       </c>
       <c r="C18" s="2">
-        <v>201100</v>
+        <v>308587</v>
       </c>
       <c r="D18" s="2">
-        <v>3215</v>
+        <v>4934</v>
       </c>
       <c r="E18" s="5">
         <v>2016</v>
@@ -1624,17 +1869,17 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="21">
-      <c r="A19" s="4" t="s">
-        <v>20</v>
+      <c r="A19" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>494609</v>
+        <v>758936</v>
       </c>
       <c r="C19" s="2">
-        <v>230663</v>
+        <v>353919</v>
       </c>
       <c r="D19" s="2">
-        <v>263945</v>
+        <v>405017</v>
       </c>
       <c r="E19" s="5">
         <v>2016</v>
@@ -1648,17 +1893,17 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="21">
-      <c r="A20" s="4" t="s">
-        <v>21</v>
+      <c r="A20" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>125802</v>
+        <v>193269</v>
       </c>
       <c r="C20" s="2">
-        <v>60503</v>
+        <v>92902</v>
       </c>
       <c r="D20" s="2">
-        <v>65298</v>
+        <v>100367</v>
       </c>
       <c r="E20" s="5">
         <v>2016</v>
@@ -1672,17 +1917,17 @@
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="21">
-      <c r="A21" s="4" t="s">
-        <v>22</v>
+      <c r="A21" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>147847</v>
+        <v>226828</v>
       </c>
       <c r="C21" s="2">
-        <v>146895</v>
-      </c>
-      <c r="D21" s="3">
-        <v>952</v>
+        <v>225367</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1461</v>
       </c>
       <c r="E21" s="5">
         <v>2016</v>
@@ -1696,17 +1941,17 @@
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="21">
-      <c r="A22" s="4" t="s">
-        <v>23</v>
+      <c r="A22" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>241073</v>
+        <v>370259</v>
       </c>
       <c r="C22" s="2">
-        <v>232318</v>
+        <v>356821</v>
       </c>
       <c r="D22" s="2">
-        <v>8756</v>
+        <v>13438</v>
       </c>
       <c r="E22" s="5">
         <v>2016</v>
@@ -1720,17 +1965,17 @@
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="21">
-      <c r="A23" s="4" t="s">
-        <v>249</v>
+      <c r="A23" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="B23" s="2">
-        <v>4629000</v>
+        <v>7105403</v>
       </c>
       <c r="C23" s="2">
-        <v>2111145</v>
+        <v>3240397</v>
       </c>
       <c r="D23" s="2">
-        <v>2517855</v>
+        <v>3865006</v>
       </c>
       <c r="E23" s="5">
         <v>2016</v>
@@ -1744,17 +1989,17 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="2">
+        <v>31051</v>
+      </c>
+      <c r="C24" s="2">
+        <v>31027</v>
+      </c>
+      <c r="D24" s="3">
         <v>24</v>
-      </c>
-      <c r="B24" s="2">
-        <v>20252</v>
-      </c>
-      <c r="C24" s="2">
-        <v>20236</v>
-      </c>
-      <c r="D24" s="3">
-        <v>15</v>
       </c>
       <c r="E24" s="5">
         <v>2016</v>
@@ -1768,17 +2013,17 @@
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="4" t="s">
-        <v>25</v>
+      <c r="A25" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B25" s="2">
-        <v>234215</v>
+        <v>360042</v>
       </c>
       <c r="C25" s="2">
-        <v>50014</v>
+        <v>77011</v>
       </c>
       <c r="D25" s="2">
-        <v>184201</v>
+        <v>283030</v>
       </c>
       <c r="E25" s="5">
         <v>2016</v>
@@ -1792,17 +2037,17 @@
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="21">
-      <c r="A26" s="4" t="s">
-        <v>26</v>
+      <c r="A26" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="B26" s="2">
-        <v>46161</v>
+        <v>71118</v>
       </c>
       <c r="C26" s="2">
-        <v>45078</v>
+        <v>69452</v>
       </c>
       <c r="D26" s="2">
-        <v>1083</v>
+        <v>1667</v>
       </c>
       <c r="E26" s="5">
         <v>2016</v>
@@ -1816,17 +2061,17 @@
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="21">
-      <c r="A27" s="4" t="s">
-        <v>27</v>
+      <c r="A27" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>682958</v>
+        <v>1047795</v>
       </c>
       <c r="C27" s="2">
-        <v>118905</v>
+        <v>182462</v>
       </c>
       <c r="D27" s="2">
-        <v>564053</v>
+        <v>865333</v>
       </c>
       <c r="E27" s="5">
         <v>2016</v>
@@ -1840,17 +2085,17 @@
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="21">
-      <c r="A28" s="4" t="s">
-        <v>28</v>
+      <c r="A28" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B28" s="2">
-        <v>1063006</v>
+        <v>1631158</v>
       </c>
       <c r="C28" s="2">
-        <v>962976</v>
+        <v>1477600</v>
       </c>
       <c r="D28" s="2">
-        <v>100030</v>
+        <v>153558</v>
       </c>
       <c r="E28" s="5">
         <v>2016</v>
@@ -1864,17 +2109,17 @@
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="4" t="s">
-        <v>29</v>
+      <c r="A29" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="B29" s="2">
-        <v>3796</v>
+        <v>5824</v>
       </c>
       <c r="C29" s="2">
-        <v>3770</v>
+        <v>5784</v>
       </c>
       <c r="D29" s="3">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E29" s="5">
         <v>2016</v>
@@ -1888,17 +2133,17 @@
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="21">
-      <c r="A30" s="4" t="s">
-        <v>30</v>
+      <c r="A30" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="B30" s="2">
-        <v>2605344</v>
+        <v>3998132</v>
       </c>
       <c r="C30" s="2">
-        <v>1735090</v>
+        <v>2662484</v>
       </c>
       <c r="D30" s="2">
-        <v>870254</v>
+        <v>1335648</v>
       </c>
       <c r="E30" s="5">
         <v>2016</v>
@@ -1912,17 +2157,17 @@
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="4" t="s">
-        <v>31</v>
+      <c r="A31" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="B31" s="2">
-        <v>265583</v>
+        <v>407620</v>
       </c>
       <c r="C31" s="2">
-        <v>87773</v>
+        <v>134773</v>
       </c>
       <c r="D31" s="2">
-        <v>177810</v>
+        <v>272847</v>
       </c>
       <c r="E31" s="5">
         <v>2016</v>
@@ -1936,17 +2181,17 @@
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="4" t="s">
-        <v>32</v>
+      <c r="A32" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="B32" s="2">
-        <v>2403400</v>
+        <v>3688097</v>
       </c>
       <c r="C32" s="2">
-        <v>1224601</v>
+        <v>1879349</v>
       </c>
       <c r="D32" s="2">
-        <v>1178799</v>
+        <v>1808747</v>
       </c>
       <c r="E32" s="5">
         <v>2016</v>
@@ -1960,17 +2205,17 @@
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" ht="21">
-      <c r="A33" s="4" t="s">
-        <v>33</v>
+      <c r="A33" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="B33" s="2">
-        <v>3855607</v>
+        <v>5921600</v>
       </c>
       <c r="C33" s="2">
-        <v>2541568</v>
+        <v>3904145</v>
       </c>
       <c r="D33" s="2">
-        <v>1314039</v>
+        <v>2017456</v>
       </c>
       <c r="E33" s="5">
         <v>2016</v>
@@ -1984,17 +2229,17 @@
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="4" t="s">
-        <v>34</v>
+      <c r="A34" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>13528026</v>
+        <v>20764178</v>
       </c>
       <c r="C34" s="2">
-        <v>5412284</v>
+        <v>8304441</v>
       </c>
       <c r="D34" s="2">
-        <v>8115742</v>
+        <v>12459737</v>
       </c>
       <c r="E34" s="5">
         <v>2016</v>
@@ -2008,17 +2253,17 @@
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" ht="21">
-      <c r="A35" s="4" t="s">
-        <v>35</v>
+      <c r="A35" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B35" s="2">
-        <v>243994</v>
+        <v>374368</v>
       </c>
       <c r="C35" s="2">
-        <v>230422</v>
+        <v>353509</v>
       </c>
       <c r="D35" s="2">
-        <v>13572</v>
+        <v>20859</v>
       </c>
       <c r="E35" s="5">
         <v>2016</v>
@@ -2032,17 +2277,17 @@
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" ht="21">
-      <c r="A36" s="4" t="s">
-        <v>36</v>
+      <c r="A36" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="B36" s="2">
-        <v>55975</v>
+        <v>85848</v>
       </c>
       <c r="C36" s="2">
-        <v>55921</v>
+        <v>85765</v>
       </c>
       <c r="D36" s="3">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="E36" s="5">
         <v>2016</v>
@@ -2056,17 +2301,17 @@
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" ht="21">
-      <c r="A37" s="4" t="s">
-        <v>37</v>
+      <c r="A37" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B37" s="2">
-        <v>3900057</v>
+        <v>5987592</v>
       </c>
       <c r="C37" s="2">
-        <v>2096660</v>
+        <v>3218629</v>
       </c>
       <c r="D37" s="2">
-        <v>1803397</v>
+        <v>2768963</v>
       </c>
       <c r="E37" s="5">
         <v>2016</v>
@@ -2080,17 +2325,17 @@
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" ht="21">
-      <c r="A38" s="4" t="s">
-        <v>38</v>
+      <c r="A38" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="B38" s="2">
-        <v>1068347</v>
+        <v>1640064</v>
       </c>
       <c r="C38" s="2">
-        <v>957341</v>
+        <v>1469128</v>
       </c>
       <c r="D38" s="2">
-        <v>111006</v>
+        <v>170937</v>
       </c>
       <c r="E38" s="5">
         <v>2016</v>
@@ -2104,17 +2349,17 @@
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="4" t="s">
-        <v>39</v>
+      <c r="A39" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="B39" s="2">
-        <v>2236033</v>
+        <v>3431942</v>
       </c>
       <c r="C39" s="2">
-        <v>1770936</v>
+        <v>2717856</v>
       </c>
       <c r="D39" s="2">
-        <v>465097</v>
+        <v>714086</v>
       </c>
       <c r="E39" s="5">
         <v>2016</v>
@@ -2128,17 +2373,17 @@
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="4" t="s">
-        <v>40</v>
+      <c r="A40" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B40" s="2">
-        <v>122438</v>
+        <v>187852</v>
       </c>
       <c r="C40" s="2">
-        <v>121167</v>
+        <v>185903</v>
       </c>
       <c r="D40" s="2">
-        <v>1271</v>
+        <v>1950</v>
       </c>
       <c r="E40" s="5">
         <v>2016</v>
@@ -2152,17 +2397,17 @@
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" ht="21">
-      <c r="A41" s="4" t="s">
-        <v>41</v>
+      <c r="A41" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="B41" s="2">
-        <v>5146343</v>
+        <v>7906357</v>
       </c>
       <c r="C41" s="2">
-        <v>3338457</v>
+        <v>5131082</v>
       </c>
       <c r="D41" s="2">
-        <v>1807886</v>
+        <v>2775276</v>
       </c>
       <c r="E41" s="5">
         <v>2016</v>
@@ -2176,17 +2421,17 @@
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="4" t="s">
-        <v>42</v>
+      <c r="A42" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="B42" s="2">
-        <v>6768909</v>
+        <v>10388543</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D42" s="2">
-        <v>6768909</v>
+        <v>10388543</v>
       </c>
       <c r="E42" s="5">
         <v>2016</v>
@@ -2201,16 +2446,16 @@
     </row>
     <row r="43" spans="1:10" ht="21">
       <c r="A43" s="6" t="s">
-        <v>247</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2">
-        <v>9624005</v>
+        <v>14771731</v>
       </c>
       <c r="C43" s="2">
-        <v>2319985</v>
+        <v>3560392</v>
       </c>
       <c r="D43" s="2">
-        <v>7304020</v>
+        <v>11211339</v>
       </c>
       <c r="E43" s="5">
         <v>2016</v>
@@ -2224,17 +2469,17 @@
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="4" t="s">
-        <v>43</v>
+      <c r="A44" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="B44" s="2">
-        <v>5362</v>
+        <v>8229</v>
       </c>
       <c r="C44" s="2">
-        <v>5333</v>
+        <v>8183</v>
       </c>
       <c r="D44" s="3">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E44" s="5">
         <v>2016</v>
@@ -2248,17 +2493,17 @@
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="4" t="s">
-        <v>44</v>
+      <c r="A45" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B45" s="2">
-        <v>843039</v>
+        <v>1293545</v>
       </c>
       <c r="C45" s="2">
-        <v>511454</v>
+        <v>784702</v>
       </c>
       <c r="D45" s="2">
-        <v>331586</v>
+        <v>508843</v>
       </c>
       <c r="E45" s="5">
         <v>2016</v>
@@ -2272,17 +2517,17 @@
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" ht="21">
-      <c r="A46" s="4" t="s">
-        <v>45</v>
+      <c r="A46" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="B46" s="2">
-        <v>346287</v>
+        <v>531310</v>
       </c>
       <c r="C46" s="2">
-        <v>343244</v>
+        <v>526641</v>
       </c>
       <c r="D46" s="2">
-        <v>3043</v>
+        <v>4669</v>
       </c>
       <c r="E46" s="5">
         <v>2016</v>
@@ -2296,17 +2541,17 @@
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" ht="21">
-      <c r="A47" s="4" t="s">
-        <v>46</v>
+      <c r="A47" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B47" s="2">
-        <v>121862</v>
+        <v>186978</v>
       </c>
       <c r="C47" s="2">
-        <v>120859</v>
+        <v>185440</v>
       </c>
       <c r="D47" s="2">
-        <v>1003</v>
+        <v>1538</v>
       </c>
       <c r="E47" s="5">
         <v>2016</v>
@@ -2320,17 +2565,17 @@
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="1:10" ht="21">
-      <c r="A48" s="4" t="s">
-        <v>47</v>
+      <c r="A48" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="B48" s="2">
-        <v>430119</v>
+        <v>659970</v>
       </c>
       <c r="C48" s="2">
-        <v>26873</v>
+        <v>41228</v>
       </c>
       <c r="D48" s="2">
-        <v>403246</v>
+        <v>618742</v>
       </c>
       <c r="E48" s="5">
         <v>2016</v>
@@ -2344,17 +2589,17 @@
       <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10" ht="21">
-      <c r="A49" s="4" t="s">
-        <v>48</v>
+      <c r="A49" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="B49" s="2">
-        <v>209589</v>
+        <v>321687</v>
       </c>
       <c r="C49" s="2">
-        <v>118567</v>
+        <v>182018</v>
       </c>
       <c r="D49" s="2">
-        <v>91022</v>
+        <v>139669</v>
       </c>
       <c r="E49" s="5">
         <v>2016</v>
@@ -2368,17 +2613,17 @@
       <c r="J49" s="3"/>
     </row>
     <row r="50" spans="1:10" ht="21">
-      <c r="A50" s="4" t="s">
-        <v>49</v>
+      <c r="A50" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="B50" s="3">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="C50" s="3">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="D50" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" s="5">
         <v>2016</v>
@@ -2392,17 +2637,17 @@
       <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:10" ht="21">
-      <c r="A51" s="4" t="s">
-        <v>50</v>
+      <c r="A51" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="B51" s="2">
-        <v>8506129</v>
+        <v>13055768</v>
       </c>
       <c r="C51" s="2">
-        <v>5433732</v>
+        <v>8338081</v>
       </c>
       <c r="D51" s="2">
-        <v>3072398</v>
+        <v>4717688</v>
       </c>
       <c r="E51" s="5">
         <v>2016</v>
@@ -2416,17 +2661,17 @@
       <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10" ht="21">
-      <c r="A52" s="4" t="s">
-        <v>51</v>
+      <c r="A52" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="B52" s="2">
-        <v>415245</v>
+        <v>637060</v>
       </c>
       <c r="C52" s="2">
-        <v>394398</v>
+        <v>605071</v>
       </c>
       <c r="D52" s="2">
-        <v>20847</v>
+        <v>31989</v>
       </c>
       <c r="E52" s="5">
         <v>2016</v>
@@ -2440,17 +2685,17 @@
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:10" ht="21">
-      <c r="A53" s="4" t="s">
-        <v>52</v>
+      <c r="A53" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="B53" s="2">
-        <v>816150</v>
+        <v>1252258</v>
       </c>
       <c r="C53" s="2">
-        <v>79461</v>
+        <v>121933</v>
       </c>
       <c r="D53" s="2">
-        <v>736689</v>
+        <v>1130325</v>
       </c>
       <c r="E53" s="5">
         <v>2016</v>
@@ -2464,17 +2709,17 @@
       <c r="J53" s="3"/>
     </row>
     <row r="54" spans="1:10" ht="21">
-      <c r="A54" s="4" t="s">
-        <v>53</v>
+      <c r="A54" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B54" s="2">
-        <v>128810</v>
+        <v>197659</v>
       </c>
       <c r="C54" s="2">
-        <v>121181</v>
+        <v>185953</v>
       </c>
       <c r="D54" s="2">
-        <v>7629</v>
+        <v>11706</v>
       </c>
       <c r="E54" s="5">
         <v>2016</v>
@@ -2488,17 +2733,17 @@
       <c r="J54" s="3"/>
     </row>
     <row r="55" spans="1:10" ht="21">
-      <c r="A55" s="4" t="s">
-        <v>54</v>
+      <c r="A55" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B55" s="2">
-        <v>17928</v>
+        <v>27501</v>
       </c>
       <c r="C55" s="2">
-        <v>12850</v>
+        <v>19709</v>
       </c>
       <c r="D55" s="2">
-        <v>5079</v>
+        <v>7793</v>
       </c>
       <c r="E55" s="5">
         <v>2016</v>
@@ -2512,17 +2757,17 @@
       <c r="J55" s="3"/>
     </row>
     <row r="56" spans="1:10" ht="21">
-      <c r="A56" s="4" t="s">
-        <v>55</v>
+      <c r="A56" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="B56" s="2">
-        <v>1401</v>
+        <v>2151</v>
       </c>
       <c r="C56" s="2">
-        <v>1288</v>
+        <v>1977</v>
       </c>
       <c r="D56" s="3">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="E56" s="5">
         <v>2016</v>
@@ -2536,17 +2781,17 @@
       <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="4" t="s">
-        <v>56</v>
+      <c r="A57" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B57" s="2">
-        <v>108855</v>
+        <v>167129</v>
       </c>
       <c r="C57" s="2">
-        <v>85595</v>
+        <v>131337</v>
       </c>
       <c r="D57" s="2">
-        <v>23260</v>
+        <v>35791</v>
       </c>
       <c r="E57" s="5">
         <v>2016</v>
@@ -2560,17 +2805,17 @@
       <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10" ht="21">
-      <c r="A58" s="4" t="s">
-        <v>57</v>
+      <c r="A58" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="B58" s="3">
-        <v>153</v>
+        <v>234</v>
       </c>
       <c r="C58" s="3">
-        <v>153</v>
+        <v>234</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E58" s="5">
         <v>2016</v>
@@ -2584,14 +2829,14 @@
       <c r="J58" s="3"/>
     </row>
     <row r="59" spans="1:10" ht="21">
-      <c r="A59" s="4" t="s">
-        <v>58</v>
+      <c r="A59" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B59" s="2">
-        <v>3262</v>
+        <v>5018</v>
       </c>
       <c r="C59" s="2">
-        <v>3261</v>
+        <v>5017</v>
       </c>
       <c r="D59" s="3">
         <v>1</v>
@@ -2608,17 +2853,17 @@
       <c r="J59" s="3"/>
     </row>
     <row r="60" spans="1:10" ht="21">
-      <c r="A60" s="4" t="s">
-        <v>59</v>
+      <c r="A60" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B60" s="2">
-        <v>2470</v>
+        <v>3840</v>
       </c>
       <c r="C60" s="3">
-        <v>521</v>
+        <v>800</v>
       </c>
       <c r="D60" s="2">
-        <v>1949</v>
+        <v>3040</v>
       </c>
       <c r="E60" s="5">
         <v>2016</v>
@@ -2632,17 +2877,17 @@
       <c r="J60" s="3"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="4" t="s">
-        <v>60</v>
+      <c r="A61" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="B61" s="3">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C61" s="3">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E61" s="5">
         <v>2016</v>
@@ -2656,17 +2901,17 @@
       <c r="J61" s="3"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="4" t="s">
-        <v>61</v>
+      <c r="A62" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="B62" s="2">
-        <v>4038</v>
+        <v>6195</v>
       </c>
       <c r="C62" s="2">
-        <v>4036</v>
+        <v>6191</v>
       </c>
       <c r="D62" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E62" s="5">
         <v>2016</v>
@@ -2680,17 +2925,17 @@
       <c r="J62" s="3"/>
     </row>
     <row r="63" spans="1:10" ht="21">
-      <c r="A63" s="4" t="s">
-        <v>62</v>
+      <c r="A63" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="B63" s="2">
-        <v>7429</v>
+        <v>11398</v>
       </c>
       <c r="C63" s="2">
-        <v>7429</v>
+        <v>11398</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E63" s="5">
         <v>2016</v>
@@ -2704,17 +2949,17 @@
       <c r="J63" s="3"/>
     </row>
     <row r="64" spans="1:10" ht="21">
-      <c r="A64" s="4" t="s">
-        <v>63</v>
+      <c r="A64" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="B64" s="2">
-        <v>170841</v>
+        <v>262245</v>
       </c>
       <c r="C64" s="2">
-        <v>33098</v>
+        <v>50782</v>
       </c>
       <c r="D64" s="2">
-        <v>137743</v>
+        <v>211462</v>
       </c>
       <c r="E64" s="5">
         <v>2016</v>
@@ -2728,17 +2973,17 @@
       <c r="J64" s="3"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="4" t="s">
-        <v>64</v>
+      <c r="A65" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B65" s="2">
-        <v>135802</v>
+        <v>208313</v>
       </c>
       <c r="C65" s="2">
-        <v>135802</v>
+        <v>208313</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E65" s="5">
         <v>2016</v>
@@ -2752,17 +2997,17 @@
       <c r="J65" s="3"/>
     </row>
     <row r="66" spans="1:10" ht="21">
-      <c r="A66" s="4" t="s">
-        <v>65</v>
+      <c r="A66" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="B66" s="2">
-        <v>657996</v>
+        <v>1009597</v>
       </c>
       <c r="C66" s="2">
-        <v>630475</v>
+        <v>967338</v>
       </c>
       <c r="D66" s="2">
-        <v>27521</v>
+        <v>42259</v>
       </c>
       <c r="E66" s="5">
         <v>2016</v>
@@ -2776,17 +3021,17 @@
       <c r="J66" s="3"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="4" t="s">
-        <v>66</v>
+      <c r="A67" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B67" s="2">
-        <v>69781</v>
+        <v>107217</v>
       </c>
       <c r="C67" s="2">
-        <v>10156</v>
+        <v>15587</v>
       </c>
       <c r="D67" s="2">
-        <v>59625</v>
+        <v>91630</v>
       </c>
       <c r="E67" s="5">
         <v>2016</v>
@@ -2800,17 +3045,17 @@
       <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="4" t="s">
-        <v>67</v>
+      <c r="A68" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="B68" s="2">
-        <v>202932</v>
+        <v>311439</v>
       </c>
       <c r="C68" s="2">
-        <v>159449</v>
+        <v>244684</v>
       </c>
       <c r="D68" s="2">
-        <v>43483</v>
+        <v>66755</v>
       </c>
       <c r="E68" s="5">
         <v>2016</v>
@@ -2824,17 +3069,17 @@
       <c r="J68" s="3"/>
     </row>
     <row r="69" spans="1:10" ht="21">
-      <c r="A69" s="4" t="s">
-        <v>68</v>
+      <c r="A69" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="B69" s="2">
-        <v>101231</v>
+        <v>155481</v>
       </c>
       <c r="C69" s="2">
-        <v>20186</v>
+        <v>30969</v>
       </c>
       <c r="D69" s="2">
-        <v>81044</v>
+        <v>124511</v>
       </c>
       <c r="E69" s="5">
         <v>2016</v>
@@ -2848,17 +3093,17 @@
       <c r="J69" s="3"/>
     </row>
     <row r="70" spans="1:10" ht="21">
-      <c r="A70" s="4" t="s">
-        <v>69</v>
+      <c r="A70" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B70" s="2">
-        <v>25499</v>
+        <v>39139</v>
       </c>
       <c r="C70" s="2">
-        <v>20659</v>
+        <v>31690</v>
       </c>
       <c r="D70" s="2">
-        <v>4841</v>
+        <v>7449</v>
       </c>
       <c r="E70" s="5">
         <v>2016</v>
@@ -2872,17 +3117,17 @@
       <c r="J70" s="3"/>
     </row>
     <row r="71" spans="1:10" ht="21">
-      <c r="A71" s="4" t="s">
-        <v>70</v>
+      <c r="A71" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="B71" s="2">
-        <v>297062</v>
+        <v>455897</v>
       </c>
       <c r="C71" s="2">
-        <v>268813</v>
+        <v>412453</v>
       </c>
       <c r="D71" s="2">
-        <v>28248</v>
+        <v>43443</v>
       </c>
       <c r="E71" s="5">
         <v>2016</v>
@@ -2896,17 +3141,17 @@
       <c r="J71" s="3"/>
     </row>
     <row r="72" spans="1:10" ht="21">
-      <c r="A72" s="4" t="s">
-        <v>71</v>
+      <c r="A72" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="B72" s="2">
-        <v>102638</v>
+        <v>157779</v>
       </c>
       <c r="C72" s="2">
-        <v>70124</v>
+        <v>107601</v>
       </c>
       <c r="D72" s="2">
-        <v>32513</v>
+        <v>50178</v>
       </c>
       <c r="E72" s="5">
         <v>2016</v>
@@ -2920,17 +3165,17 @@
       <c r="J72" s="3"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="4" t="s">
-        <v>72</v>
+      <c r="A73" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="B73" s="2">
-        <v>2165</v>
+        <v>3327</v>
       </c>
       <c r="C73" s="2">
-        <v>2165</v>
+        <v>3327</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E73" s="5">
         <v>2016</v>
@@ -2944,17 +3189,17 @@
       <c r="J73" s="3"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="4" t="s">
-        <v>73</v>
+      <c r="A74" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="B74" s="2">
-        <v>111448</v>
+        <v>170989</v>
       </c>
       <c r="C74" s="2">
-        <v>107282</v>
+        <v>164596</v>
       </c>
       <c r="D74" s="2">
-        <v>4166</v>
+        <v>6393</v>
       </c>
       <c r="E74" s="5">
         <v>2016</v>
@@ -2968,17 +3213,17 @@
       <c r="J74" s="3"/>
     </row>
     <row r="75" spans="1:10" ht="21">
-      <c r="A75" s="4" t="s">
-        <v>74</v>
+      <c r="A75" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="B75" s="2">
-        <v>361749</v>
+        <v>554927</v>
       </c>
       <c r="C75" s="2">
-        <v>357384</v>
+        <v>548224</v>
       </c>
       <c r="D75" s="2">
-        <v>4365</v>
+        <v>6703</v>
       </c>
       <c r="E75" s="5">
         <v>2016</v>
@@ -2992,17 +3237,17 @@
       <c r="J75" s="3"/>
     </row>
     <row r="76" spans="1:10" ht="21">
-      <c r="A76" s="4" t="s">
-        <v>75</v>
+      <c r="A76" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="B76" s="2">
-        <v>64589</v>
+        <v>99339</v>
       </c>
       <c r="C76" s="2">
-        <v>61508</v>
+        <v>94611</v>
       </c>
       <c r="D76" s="2">
-        <v>3081</v>
+        <v>4728</v>
       </c>
       <c r="E76" s="5">
         <v>2016</v>
@@ -3016,17 +3261,17 @@
       <c r="J76" s="3"/>
     </row>
     <row r="77" spans="1:10" ht="21">
-      <c r="A77" s="4" t="s">
-        <v>76</v>
+      <c r="A77" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="B77" s="2">
-        <v>73763</v>
+        <v>113158</v>
       </c>
       <c r="C77" s="2">
-        <v>73763</v>
+        <v>113158</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E77" s="5">
         <v>2016</v>
@@ -3040,17 +3285,17 @@
       <c r="J77" s="3"/>
     </row>
     <row r="78" spans="1:10" ht="21">
-      <c r="A78" s="4" t="s">
-        <v>77</v>
+      <c r="A78" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="B78" s="2">
-        <v>72423</v>
+        <v>111123</v>
       </c>
       <c r="C78" s="2">
-        <v>65759</v>
+        <v>100885</v>
       </c>
       <c r="D78" s="2">
-        <v>6665</v>
+        <v>10238</v>
       </c>
       <c r="E78" s="5">
         <v>2016</v>
@@ -3064,17 +3309,17 @@
       <c r="J78" s="3"/>
     </row>
     <row r="79" spans="1:10" ht="21">
-      <c r="A79" s="4" t="s">
-        <v>78</v>
+      <c r="A79" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="B79" s="2">
-        <v>22662</v>
+        <v>34765</v>
       </c>
       <c r="C79" s="2">
-        <v>15002</v>
+        <v>23013</v>
       </c>
       <c r="D79" s="2">
-        <v>7659</v>
+        <v>11752</v>
       </c>
       <c r="E79" s="5">
         <v>2016</v>
@@ -3088,17 +3333,17 @@
       <c r="J79" s="3"/>
     </row>
     <row r="80" spans="1:10" ht="21">
-      <c r="A80" s="4" t="s">
-        <v>79</v>
+      <c r="A80" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="B80" s="2">
-        <v>27628</v>
+        <v>42395</v>
       </c>
       <c r="C80" s="2">
-        <v>20813</v>
+        <v>31938</v>
       </c>
       <c r="D80" s="2">
-        <v>6815</v>
+        <v>10457</v>
       </c>
       <c r="E80" s="5">
         <v>2016</v>
@@ -3112,17 +3357,17 @@
       <c r="J80" s="3"/>
     </row>
     <row r="81" spans="1:10" ht="21">
-      <c r="A81" s="4" t="s">
-        <v>80</v>
+      <c r="A81" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="B81" s="2">
-        <v>110367</v>
+        <v>169353</v>
       </c>
       <c r="C81" s="2">
-        <v>71456</v>
+        <v>109649</v>
       </c>
       <c r="D81" s="2">
-        <v>38911</v>
+        <v>59704</v>
       </c>
       <c r="E81" s="5">
         <v>2016</v>
@@ -3136,17 +3381,17 @@
       <c r="J81" s="3"/>
     </row>
     <row r="82" spans="1:10" ht="21">
-      <c r="A82" s="4" t="s">
-        <v>81</v>
+      <c r="A82" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="B82" s="2">
-        <v>51420</v>
+        <v>78903</v>
       </c>
       <c r="C82" s="2">
-        <v>50668</v>
-      </c>
-      <c r="D82" s="3">
-        <v>752</v>
+        <v>77746</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1158</v>
       </c>
       <c r="E82" s="5">
         <v>2016</v>
@@ -3160,17 +3405,17 @@
       <c r="J82" s="3"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="4" t="s">
-        <v>82</v>
+      <c r="A83" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="B83" s="2">
-        <v>204488</v>
+        <v>314056</v>
       </c>
       <c r="C83" s="2">
-        <v>175882</v>
+        <v>270027</v>
       </c>
       <c r="D83" s="2">
-        <v>28606</v>
+        <v>44029</v>
       </c>
       <c r="E83" s="5">
         <v>2016</v>
@@ -3184,17 +3429,17 @@
       <c r="J83" s="3"/>
     </row>
     <row r="84" spans="1:10" ht="21">
-      <c r="A84" s="4" t="s">
-        <v>83</v>
+      <c r="A84" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="B84" s="2">
-        <v>106834</v>
+        <v>163886</v>
       </c>
       <c r="C84" s="2">
-        <v>88026</v>
+        <v>135033</v>
       </c>
       <c r="D84" s="2">
-        <v>18808</v>
+        <v>28853</v>
       </c>
       <c r="E84" s="5">
         <v>2016</v>
@@ -3208,17 +3453,17 @@
       <c r="J84" s="3"/>
     </row>
     <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="4" t="s">
-        <v>84</v>
+      <c r="A85" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="B85" s="2">
-        <v>23327</v>
+        <v>35779</v>
       </c>
       <c r="C85" s="2">
-        <v>19957</v>
+        <v>30608</v>
       </c>
       <c r="D85" s="2">
-        <v>3370</v>
+        <v>5171</v>
       </c>
       <c r="E85" s="5">
         <v>2016</v>
@@ -3232,17 +3477,17 @@
       <c r="J85" s="3"/>
     </row>
     <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="4" t="s">
-        <v>85</v>
+      <c r="A86" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B86" s="2">
-        <v>17370</v>
+        <v>26682</v>
       </c>
       <c r="C86" s="2">
-        <v>9171</v>
+        <v>14100</v>
       </c>
       <c r="D86" s="2">
-        <v>8199</v>
+        <v>12582</v>
       </c>
       <c r="E86" s="5">
         <v>2016</v>
@@ -3256,17 +3501,17 @@
       <c r="J86" s="3"/>
     </row>
     <row r="87" spans="1:10" ht="21">
-      <c r="A87" s="4" t="s">
-        <v>86</v>
+      <c r="A87" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="B87" s="2">
-        <v>623375</v>
+        <v>956355</v>
       </c>
       <c r="C87" s="2">
-        <v>537732</v>
+        <v>824891</v>
       </c>
       <c r="D87" s="2">
-        <v>85643</v>
+        <v>131464</v>
       </c>
       <c r="E87" s="5">
         <v>2016</v>
@@ -3280,17 +3525,17 @@
       <c r="J87" s="3"/>
     </row>
     <row r="88" spans="1:10" ht="21">
-      <c r="A88" s="4" t="s">
-        <v>87</v>
+      <c r="A88" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="B88" s="2">
-        <v>9278</v>
+        <v>14242</v>
       </c>
       <c r="C88" s="2">
-        <v>9278</v>
+        <v>14242</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E88" s="5">
         <v>2016</v>
@@ -3304,17 +3549,17 @@
       <c r="J88" s="3"/>
     </row>
     <row r="89" spans="1:10" ht="21">
-      <c r="A89" s="4" t="s">
-        <v>88</v>
+      <c r="A89" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="B89" s="2">
-        <v>8151</v>
+        <v>12510</v>
       </c>
       <c r="C89" s="2">
-        <v>7289</v>
-      </c>
-      <c r="D89" s="3">
-        <v>862</v>
+        <v>11188</v>
+      </c>
+      <c r="D89" s="2">
+        <v>1322</v>
       </c>
       <c r="E89" s="5">
         <v>2016</v>
@@ -3328,17 +3573,17 @@
       <c r="J89" s="3"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90" s="3">
-        <v>830</v>
-      </c>
-      <c r="C90" s="3">
-        <v>830</v>
+      <c r="A90" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" s="2">
+        <v>1273</v>
+      </c>
+      <c r="C90" s="2">
+        <v>1273</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E90" s="5">
         <v>2016</v>
@@ -3352,17 +3597,17 @@
       <c r="J90" s="3"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="4" t="s">
-        <v>90</v>
+      <c r="A91" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="B91" s="2">
-        <v>172529</v>
+        <v>264916</v>
       </c>
       <c r="C91" s="2">
-        <v>154966</v>
+        <v>237755</v>
       </c>
       <c r="D91" s="2">
-        <v>17563</v>
+        <v>27162</v>
       </c>
       <c r="E91" s="5">
         <v>2016</v>
@@ -3376,14 +3621,14 @@
       <c r="J91" s="3"/>
     </row>
     <row r="92" spans="1:10" ht="21">
-      <c r="A92" s="4" t="s">
-        <v>91</v>
+      <c r="A92" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="B92" s="2">
-        <v>1993</v>
+        <v>3057</v>
       </c>
       <c r="C92" s="2">
-        <v>1993</v>
+        <v>3056</v>
       </c>
       <c r="D92" s="3">
         <v>0</v>
@@ -3400,17 +3645,17 @@
       <c r="J92" s="3"/>
     </row>
     <row r="93" spans="1:10" ht="21">
-      <c r="A93" s="4" t="s">
-        <v>92</v>
+      <c r="A93" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="B93" s="2">
-        <v>35305</v>
+        <v>54229</v>
       </c>
       <c r="C93" s="2">
-        <v>17132</v>
+        <v>26285</v>
       </c>
       <c r="D93" s="2">
-        <v>18173</v>
+        <v>27944</v>
       </c>
       <c r="E93" s="5">
         <v>2016</v>
@@ -3424,17 +3669,17 @@
       <c r="J93" s="3"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="4" t="s">
-        <v>93</v>
+      <c r="A94" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="B94" s="2">
-        <v>22998</v>
+        <v>35281</v>
       </c>
       <c r="C94" s="2">
-        <v>22079</v>
-      </c>
-      <c r="D94" s="3">
-        <v>919</v>
+        <v>33870</v>
+      </c>
+      <c r="D94" s="2">
+        <v>1410</v>
       </c>
       <c r="E94" s="5">
         <v>2016</v>
@@ -3448,17 +3693,17 @@
       <c r="J94" s="3"/>
     </row>
     <row r="95" spans="1:10" ht="21">
-      <c r="A95" s="4" t="s">
-        <v>94</v>
+      <c r="A95" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="B95" s="2">
-        <v>1694104</v>
+        <v>2601324</v>
       </c>
       <c r="C95" s="2">
-        <v>719575</v>
+        <v>1104507</v>
       </c>
       <c r="D95" s="2">
-        <v>974529</v>
+        <v>1496817</v>
       </c>
       <c r="E95" s="5">
         <v>2016</v>
@@ -3472,17 +3717,17 @@
       <c r="J95" s="3"/>
     </row>
     <row r="96" spans="1:10" ht="21">
-      <c r="A96" s="4" t="s">
-        <v>95</v>
+      <c r="A96" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="B96" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C96" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E96" s="5">
         <v>2016</v>
@@ -3496,17 +3741,17 @@
       <c r="J96" s="3"/>
     </row>
     <row r="97" spans="1:10" ht="21">
-      <c r="A97" s="4" t="s">
-        <v>96</v>
+      <c r="A97" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="B97" s="2">
-        <v>179956</v>
+        <v>276346</v>
       </c>
       <c r="C97" s="2">
-        <v>161445</v>
+        <v>247926</v>
       </c>
       <c r="D97" s="2">
-        <v>18511</v>
+        <v>28420</v>
       </c>
       <c r="E97" s="5">
         <v>2016</v>
@@ -3520,17 +3765,17 @@
       <c r="J97" s="3"/>
     </row>
     <row r="98" spans="1:10" ht="21">
-      <c r="A98" s="4" t="s">
-        <v>97</v>
+      <c r="A98" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="B98" s="2">
-        <v>259139</v>
+        <v>397782</v>
       </c>
       <c r="C98" s="2">
-        <v>241405</v>
+        <v>370529</v>
       </c>
       <c r="D98" s="2">
-        <v>17735</v>
+        <v>27253</v>
       </c>
       <c r="E98" s="5">
         <v>2016</v>
@@ -3544,17 +3789,17 @@
       <c r="J98" s="3"/>
     </row>
     <row r="99" spans="1:10" ht="21">
-      <c r="A99" s="4" t="s">
-        <v>98</v>
+      <c r="A99" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="B99" s="2">
-        <v>140501</v>
+        <v>215702</v>
       </c>
       <c r="C99" s="2">
-        <v>128098</v>
+        <v>196665</v>
       </c>
       <c r="D99" s="2">
-        <v>12403</v>
+        <v>19037</v>
       </c>
       <c r="E99" s="5">
         <v>2016</v>
@@ -3568,17 +3813,17 @@
       <c r="J99" s="3"/>
     </row>
     <row r="100" spans="1:10" ht="21">
-      <c r="A100" s="4" t="s">
-        <v>99</v>
+      <c r="A100" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="B100" s="2">
-        <v>92132</v>
+        <v>141467</v>
       </c>
       <c r="C100" s="2">
-        <v>85684</v>
+        <v>131467</v>
       </c>
       <c r="D100" s="2">
-        <v>6448</v>
+        <v>10000</v>
       </c>
       <c r="E100" s="5">
         <v>2016</v>
@@ -3592,17 +3837,17 @@
       <c r="J100" s="3"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="4" t="s">
-        <v>100</v>
+      <c r="A101" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="B101" s="2">
-        <v>35754</v>
+        <v>54859</v>
       </c>
       <c r="C101" s="2">
-        <v>33103</v>
+        <v>50788</v>
       </c>
       <c r="D101" s="2">
-        <v>2652</v>
+        <v>4071</v>
       </c>
       <c r="E101" s="5">
         <v>2016</v>
@@ -3616,17 +3861,17 @@
       <c r="J101" s="3"/>
     </row>
     <row r="102" spans="1:10" ht="21">
-      <c r="A102" s="4" t="s">
-        <v>101</v>
+      <c r="A102" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="B102" s="2">
-        <v>9344</v>
+        <v>14363</v>
       </c>
       <c r="C102" s="2">
-        <v>9004</v>
+        <v>13841</v>
       </c>
       <c r="D102" s="3">
-        <v>340</v>
+        <v>522</v>
       </c>
       <c r="E102" s="5">
         <v>2016</v>
@@ -3640,17 +3885,17 @@
       <c r="J102" s="3"/>
     </row>
     <row r="103" spans="1:10" ht="21">
-      <c r="A103" s="4" t="s">
-        <v>102</v>
+      <c r="A103" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="B103" s="2">
-        <v>173721</v>
+        <v>266643</v>
       </c>
       <c r="C103" s="2">
-        <v>58836</v>
+        <v>90273</v>
       </c>
       <c r="D103" s="2">
-        <v>114885</v>
+        <v>176369</v>
       </c>
       <c r="E103" s="5">
         <v>2016</v>
@@ -3664,17 +3909,17 @@
       <c r="J103" s="3"/>
     </row>
     <row r="104" spans="1:10" ht="21">
-      <c r="A104" s="4" t="s">
-        <v>103</v>
+      <c r="A104" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="B104" s="2">
-        <v>182691</v>
+        <v>280391</v>
       </c>
       <c r="C104" s="2">
-        <v>30572</v>
+        <v>46896</v>
       </c>
       <c r="D104" s="2">
-        <v>152120</v>
+        <v>233495</v>
       </c>
       <c r="E104" s="5">
         <v>2016</v>
@@ -3688,17 +3933,17 @@
       <c r="J104" s="3"/>
     </row>
     <row r="105" spans="1:10" ht="21">
-      <c r="A105" s="4" t="s">
-        <v>104</v>
+      <c r="A105" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="B105" s="2">
-        <v>206021</v>
+        <v>316106</v>
       </c>
       <c r="C105" s="2">
-        <v>19904</v>
+        <v>30536</v>
       </c>
       <c r="D105" s="2">
-        <v>186117</v>
+        <v>285570</v>
       </c>
       <c r="E105" s="5">
         <v>2016</v>
@@ -3712,17 +3957,17 @@
       <c r="J105" s="3"/>
     </row>
     <row r="106" spans="1:10" ht="21">
-      <c r="A106" s="4" t="s">
-        <v>105</v>
+      <c r="A106" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="B106" s="2">
-        <v>5288</v>
+        <v>8130</v>
       </c>
       <c r="C106" s="2">
-        <v>3056</v>
+        <v>4688</v>
       </c>
       <c r="D106" s="2">
-        <v>2232</v>
+        <v>3442</v>
       </c>
       <c r="E106" s="5">
         <v>2016</v>
@@ -3736,17 +3981,17 @@
       <c r="J106" s="3"/>
     </row>
     <row r="107" spans="1:10" ht="21">
-      <c r="A107" s="4" t="s">
-        <v>106</v>
+      <c r="A107" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="B107" s="3">
-        <v>479</v>
+        <v>734</v>
       </c>
       <c r="C107" s="3">
-        <v>479</v>
+        <v>734</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E107" s="5">
         <v>2016</v>
@@ -3760,17 +4005,17 @@
       <c r="J107" s="3"/>
     </row>
     <row r="108" spans="1:10" ht="21">
-      <c r="A108" s="4" t="s">
-        <v>107</v>
+      <c r="A108" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="B108" s="2">
-        <v>1268</v>
+        <v>1948</v>
       </c>
       <c r="C108" s="2">
-        <v>1265</v>
+        <v>1944</v>
       </c>
       <c r="D108" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E108" s="5">
         <v>2016</v>
@@ -3784,17 +4029,17 @@
       <c r="J108" s="3"/>
     </row>
     <row r="109" spans="1:10" ht="21">
-      <c r="A109" s="4" t="s">
-        <v>108</v>
+      <c r="A109" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="B109" s="2">
-        <v>22021</v>
+        <v>33870</v>
       </c>
       <c r="C109" s="2">
-        <v>1868</v>
+        <v>2865</v>
       </c>
       <c r="D109" s="2">
-        <v>20153</v>
+        <v>31005</v>
       </c>
       <c r="E109" s="5">
         <v>2016</v>
@@ -3808,17 +4053,17 @@
       <c r="J109" s="3"/>
     </row>
     <row r="110" spans="1:10" ht="21">
-      <c r="A110" s="4" t="s">
-        <v>109</v>
+      <c r="A110" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="B110" s="2">
-        <v>7218</v>
+        <v>11073</v>
       </c>
       <c r="C110" s="2">
-        <v>7218</v>
+        <v>11073</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E110" s="5">
         <v>2016</v>
@@ -3832,17 +4077,17 @@
       <c r="J110" s="3"/>
     </row>
     <row r="111" spans="1:10" ht="21">
-      <c r="A111" s="4" t="s">
-        <v>110</v>
+      <c r="A111" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="B111" s="2">
-        <v>102153</v>
+        <v>156744</v>
       </c>
       <c r="C111" s="2">
-        <v>3033</v>
+        <v>4654</v>
       </c>
       <c r="D111" s="2">
-        <v>99120</v>
+        <v>152089</v>
       </c>
       <c r="E111" s="5">
         <v>2016</v>
@@ -3856,17 +4101,17 @@
       <c r="J111" s="3"/>
     </row>
     <row r="112" spans="1:10" ht="21">
-      <c r="A112" s="4" t="s">
-        <v>111</v>
+      <c r="A112" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="B112" s="3">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="C112" s="3">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="D112" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E112" s="5">
         <v>2016</v>
@@ -3880,17 +4125,17 @@
       <c r="J112" s="3"/>
     </row>
     <row r="113" spans="1:10" ht="21">
-      <c r="A113" s="4" t="s">
-        <v>112</v>
+      <c r="A113" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="B113" s="2">
-        <v>1161264</v>
+        <v>1785666</v>
       </c>
       <c r="C113" s="2">
-        <v>761283</v>
+        <v>1169184</v>
       </c>
       <c r="D113" s="2">
-        <v>399981</v>
+        <v>616482</v>
       </c>
       <c r="E113" s="5">
         <v>2016</v>
@@ -3904,17 +4149,17 @@
       <c r="J113" s="3"/>
     </row>
     <row r="114" spans="1:10" ht="21">
-      <c r="A114" s="4" t="s">
-        <v>113</v>
+      <c r="A114" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="B114" s="2">
-        <v>480488</v>
+        <v>740217</v>
       </c>
       <c r="C114" s="2">
-        <v>245801</v>
+        <v>377554</v>
       </c>
       <c r="D114" s="2">
-        <v>234687</v>
+        <v>362663</v>
       </c>
       <c r="E114" s="5">
         <v>2016</v>
@@ -3928,17 +4173,17 @@
       <c r="J114" s="3"/>
     </row>
     <row r="115" spans="1:10" ht="21">
-      <c r="A115" s="4" t="s">
-        <v>114</v>
+      <c r="A115" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="B115" s="2">
-        <v>3760702</v>
+        <v>5777068</v>
       </c>
       <c r="C115" s="2">
-        <v>2885174</v>
+        <v>4427649</v>
       </c>
       <c r="D115" s="2">
-        <v>875527</v>
+        <v>1349418</v>
       </c>
       <c r="E115" s="5">
         <v>2016</v>
@@ -3952,17 +4197,17 @@
       <c r="J115" s="3"/>
     </row>
     <row r="116" spans="1:10" ht="21">
-      <c r="A116" s="4" t="s">
-        <v>115</v>
+      <c r="A116" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="B116" s="2">
-        <v>8292367</v>
+        <v>12798847</v>
       </c>
       <c r="C116" s="2">
-        <v>3397580</v>
+        <v>5221395</v>
       </c>
       <c r="D116" s="2">
-        <v>4894787</v>
+        <v>7577452</v>
       </c>
       <c r="E116" s="5">
         <v>2016</v>
@@ -3976,17 +4221,17 @@
       <c r="J116" s="3"/>
     </row>
     <row r="117" spans="1:10" ht="21">
-      <c r="A117" s="4" t="s">
-        <v>116</v>
+      <c r="A117" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="B117" s="2">
-        <v>2590222</v>
+        <v>3989557</v>
       </c>
       <c r="C117" s="2">
-        <v>1331686</v>
+        <v>2045848</v>
       </c>
       <c r="D117" s="2">
-        <v>1258536</v>
+        <v>1943709</v>
       </c>
       <c r="E117" s="5">
         <v>2016</v>
@@ -4000,17 +4245,17 @@
       <c r="J117" s="3"/>
     </row>
     <row r="118" spans="1:10" ht="21">
-      <c r="A118" s="4" t="s">
-        <v>117</v>
+      <c r="A118" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="B118" s="2">
-        <v>349965</v>
+        <v>538206</v>
       </c>
       <c r="C118" s="2">
-        <v>149051</v>
+        <v>228758</v>
       </c>
       <c r="D118" s="2">
-        <v>200914</v>
+        <v>309449</v>
       </c>
       <c r="E118" s="5">
         <v>2016</v>
@@ -4024,17 +4269,17 @@
       <c r="J118" s="3"/>
     </row>
     <row r="119" spans="1:10" ht="21">
-      <c r="A119" s="4" t="s">
-        <v>118</v>
+      <c r="A119" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="B119" s="2">
-        <v>2378078</v>
+        <v>3664539</v>
       </c>
       <c r="C119" s="2">
-        <v>1540363</v>
+        <v>2366566</v>
       </c>
       <c r="D119" s="2">
-        <v>837715</v>
+        <v>1297973</v>
       </c>
       <c r="E119" s="5">
         <v>2016</v>
@@ -4048,17 +4293,17 @@
       <c r="J119" s="3"/>
     </row>
     <row r="120" spans="1:10" ht="21">
-      <c r="A120" s="4" t="s">
-        <v>119</v>
+      <c r="A120" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="B120" s="2">
-        <v>81490</v>
+        <v>125403</v>
       </c>
       <c r="C120" s="2">
-        <v>64501</v>
+        <v>99039</v>
       </c>
       <c r="D120" s="2">
-        <v>16989</v>
+        <v>26365</v>
       </c>
       <c r="E120" s="5">
         <v>2016</v>
@@ -4072,17 +4317,17 @@
       <c r="J120" s="3"/>
     </row>
     <row r="121" spans="1:10" ht="21">
-      <c r="A121" s="4" t="s">
-        <v>120</v>
+      <c r="A121" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="B121" s="2">
-        <v>3455373</v>
+        <v>5310437</v>
       </c>
       <c r="C121" s="2">
-        <v>2920660</v>
+        <v>4484476</v>
       </c>
       <c r="D121" s="2">
-        <v>534713</v>
+        <v>825961</v>
       </c>
       <c r="E121" s="5">
         <v>2016</v>
@@ -4096,17 +4341,17 @@
       <c r="J121" s="3"/>
     </row>
     <row r="122" spans="1:10" ht="21">
-      <c r="A122" s="4" t="s">
-        <v>121</v>
+      <c r="A122" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="B122" s="2">
-        <v>251709</v>
+        <v>386560</v>
       </c>
       <c r="C122" s="2">
-        <v>241296</v>
+        <v>370470</v>
       </c>
       <c r="D122" s="2">
-        <v>10414</v>
+        <v>16090</v>
       </c>
       <c r="E122" s="5">
         <v>2016</v>
@@ -4120,17 +4365,17 @@
       <c r="J122" s="3"/>
     </row>
     <row r="123" spans="1:10" ht="21">
-      <c r="A123" s="4" t="s">
-        <v>122</v>
+      <c r="A123" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="B123" s="2">
-        <v>305784</v>
+        <v>469954</v>
       </c>
       <c r="C123" s="2">
-        <v>234434</v>
+        <v>359863</v>
       </c>
       <c r="D123" s="2">
-        <v>71349</v>
+        <v>110091</v>
       </c>
       <c r="E123" s="5">
         <v>2016</v>
@@ -4144,17 +4389,17 @@
       <c r="J123" s="3"/>
     </row>
     <row r="124" spans="1:10" ht="21">
-      <c r="A124" s="4" t="s">
-        <v>123</v>
+      <c r="A124" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="B124" s="2">
-        <v>1526978</v>
+        <v>2348517</v>
       </c>
       <c r="C124" s="2">
-        <v>1209909</v>
+        <v>1858155</v>
       </c>
       <c r="D124" s="2">
-        <v>317069</v>
+        <v>490362</v>
       </c>
       <c r="E124" s="5">
         <v>2016</v>
@@ -4168,17 +4413,17 @@
       <c r="J124" s="3"/>
     </row>
     <row r="125" spans="1:10" ht="21">
-      <c r="A125" s="4" t="s">
-        <v>124</v>
+      <c r="A125" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="B125" s="2">
-        <v>42914</v>
+        <v>65894</v>
       </c>
       <c r="C125" s="2">
-        <v>41411</v>
+        <v>63583</v>
       </c>
       <c r="D125" s="2">
-        <v>1503</v>
+        <v>2311</v>
       </c>
       <c r="E125" s="5">
         <v>2016</v>
@@ -4192,17 +4437,17 @@
       <c r="J125" s="3"/>
     </row>
     <row r="126" spans="1:10" ht="21">
-      <c r="A126" s="4" t="s">
-        <v>125</v>
+      <c r="A126" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="B126" s="3">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="C126" s="3">
-        <v>136</v>
+        <v>208</v>
       </c>
       <c r="D126" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E126" s="5">
         <v>2016</v>
@@ -4216,17 +4461,17 @@
       <c r="J126" s="3"/>
     </row>
     <row r="127" spans="1:10" ht="21">
-      <c r="A127" s="4" t="s">
-        <v>126</v>
+      <c r="A127" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="B127" s="2">
-        <v>398897</v>
+        <v>616378</v>
       </c>
       <c r="C127" s="2">
-        <v>126981</v>
+        <v>195421</v>
       </c>
       <c r="D127" s="2">
-        <v>271917</v>
+        <v>420958</v>
       </c>
       <c r="E127" s="5">
         <v>2016</v>
@@ -4240,17 +4485,17 @@
       <c r="J127" s="3"/>
     </row>
     <row r="128" spans="1:10" ht="21">
-      <c r="A128" s="4" t="s">
-        <v>127</v>
+      <c r="A128" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="B128" s="2">
-        <v>97850</v>
+        <v>150516</v>
       </c>
       <c r="C128" s="2">
-        <v>58691</v>
+        <v>90094</v>
       </c>
       <c r="D128" s="2">
-        <v>39159</v>
+        <v>60422</v>
       </c>
       <c r="E128" s="5">
         <v>2016</v>
@@ -4264,17 +4509,17 @@
       <c r="J128" s="3"/>
     </row>
     <row r="129" spans="1:10" ht="21">
-      <c r="A129" s="4" t="s">
-        <v>128</v>
+      <c r="A129" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="B129" s="2">
-        <v>371012</v>
+        <v>571764</v>
       </c>
       <c r="C129" s="2">
-        <v>155476</v>
+        <v>238916</v>
       </c>
       <c r="D129" s="2">
-        <v>215536</v>
+        <v>332848</v>
       </c>
       <c r="E129" s="5">
         <v>2016</v>
@@ -4288,17 +4533,17 @@
       <c r="J129" s="3"/>
     </row>
     <row r="130" spans="1:10" ht="21">
-      <c r="A130" s="4" t="s">
-        <v>129</v>
+      <c r="A130" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="B130" s="3">
-        <v>411</v>
+        <v>629</v>
       </c>
       <c r="C130" s="3">
-        <v>411</v>
+        <v>629</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E130" s="5">
         <v>2016</v>
@@ -4312,17 +4557,17 @@
       <c r="J130" s="3"/>
     </row>
     <row r="131" spans="1:10" ht="21">
-      <c r="A131" s="4" t="s">
-        <v>130</v>
+      <c r="A131" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="B131" s="2">
-        <v>458121</v>
+        <v>705480</v>
       </c>
       <c r="C131" s="2">
-        <v>290285</v>
+        <v>445819</v>
       </c>
       <c r="D131" s="2">
-        <v>167836</v>
+        <v>259662</v>
       </c>
       <c r="E131" s="5">
         <v>2016</v>
@@ -4336,17 +4581,17 @@
       <c r="J131" s="3"/>
     </row>
     <row r="132" spans="1:10" ht="21">
-      <c r="A132" s="4" t="s">
-        <v>131</v>
+      <c r="A132" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="B132" s="2">
-        <v>8556</v>
+        <v>13145</v>
       </c>
       <c r="C132" s="2">
-        <v>5677</v>
+        <v>8711</v>
       </c>
       <c r="D132" s="2">
-        <v>2878</v>
+        <v>4434</v>
       </c>
       <c r="E132" s="5">
         <v>2016</v>
@@ -4360,17 +4605,17 @@
       <c r="J132" s="3"/>
     </row>
     <row r="133" spans="1:10" ht="21">
-      <c r="A133" s="4" t="s">
-        <v>132</v>
+      <c r="A133" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="B133" s="2">
-        <v>8118</v>
+        <v>12589</v>
       </c>
       <c r="C133" s="2">
-        <v>1619</v>
+        <v>2488</v>
       </c>
       <c r="D133" s="2">
-        <v>6499</v>
+        <v>10101</v>
       </c>
       <c r="E133" s="5">
         <v>2016</v>
@@ -4384,17 +4629,17 @@
       <c r="J133" s="3"/>
     </row>
     <row r="134" spans="1:10" ht="21">
-      <c r="A134" s="4" t="s">
-        <v>133</v>
+      <c r="A134" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="B134" s="2">
-        <v>107191</v>
+        <v>164433</v>
       </c>
       <c r="C134" s="2">
-        <v>85954</v>
+        <v>131818</v>
       </c>
       <c r="D134" s="2">
-        <v>21237</v>
+        <v>32615</v>
       </c>
       <c r="E134" s="5">
         <v>2016</v>
@@ -4408,17 +4653,17 @@
       <c r="J134" s="3"/>
     </row>
     <row r="135" spans="1:10" ht="21">
-      <c r="A135" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B135" s="3">
-        <v>785</v>
+      <c r="A135" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B135" s="2">
+        <v>1216</v>
       </c>
       <c r="C135" s="3">
-        <v>328</v>
+        <v>509</v>
       </c>
       <c r="D135" s="3">
-        <v>457</v>
+        <v>706</v>
       </c>
       <c r="E135" s="5">
         <v>2016</v>
@@ -4432,17 +4677,17 @@
       <c r="J135" s="3"/>
     </row>
     <row r="136" spans="1:10" ht="21">
-      <c r="A136" s="4" t="s">
-        <v>135</v>
+      <c r="A136" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="B136" s="2">
-        <v>278881</v>
+        <v>428342</v>
       </c>
       <c r="C136" s="2">
-        <v>116656</v>
+        <v>179051</v>
       </c>
       <c r="D136" s="2">
-        <v>162225</v>
+        <v>249291</v>
       </c>
       <c r="E136" s="5">
         <v>2016</v>
@@ -4456,17 +4701,17 @@
       <c r="J136" s="3"/>
     </row>
     <row r="137" spans="1:10" ht="21">
-      <c r="A137" s="4" t="s">
-        <v>136</v>
+      <c r="A137" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="B137" s="2">
-        <v>894558</v>
+        <v>1374659</v>
       </c>
       <c r="C137" s="2">
-        <v>775256</v>
+        <v>1190414</v>
       </c>
       <c r="D137" s="2">
-        <v>119301</v>
+        <v>184246</v>
       </c>
       <c r="E137" s="5">
         <v>2016</v>
@@ -4480,17 +4725,17 @@
       <c r="J137" s="3"/>
     </row>
     <row r="138" spans="1:10" ht="21">
-      <c r="A138" s="4" t="s">
-        <v>137</v>
+      <c r="A138" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="B138" s="2">
-        <v>268809</v>
+        <v>413613</v>
       </c>
       <c r="C138" s="2">
-        <v>202047</v>
+        <v>310346</v>
       </c>
       <c r="D138" s="2">
-        <v>66763</v>
+        <v>103267</v>
       </c>
       <c r="E138" s="5">
         <v>2016</v>
@@ -4504,17 +4749,17 @@
       <c r="J138" s="3"/>
     </row>
     <row r="139" spans="1:10" ht="21">
-      <c r="A139" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B139" s="3">
-        <v>953</v>
+      <c r="A139" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139" s="2">
+        <v>1463</v>
       </c>
       <c r="C139" s="3">
-        <v>309</v>
+        <v>475</v>
       </c>
       <c r="D139" s="3">
-        <v>643</v>
+        <v>988</v>
       </c>
       <c r="E139" s="5">
         <v>2016</v>
@@ -4528,17 +4773,17 @@
       <c r="J139" s="3"/>
     </row>
     <row r="140" spans="1:10" ht="21">
-      <c r="A140" s="4" t="s">
-        <v>139</v>
+      <c r="A140" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="B140" s="2">
-        <v>637836</v>
+        <v>982913</v>
       </c>
       <c r="C140" s="2">
-        <v>328601</v>
+        <v>504589</v>
       </c>
       <c r="D140" s="2">
-        <v>309235</v>
+        <v>478323</v>
       </c>
       <c r="E140" s="5">
         <v>2016</v>
@@ -4552,17 +4797,17 @@
       <c r="J140" s="3"/>
     </row>
     <row r="141" spans="1:10" ht="21">
-      <c r="A141" s="4" t="s">
-        <v>140</v>
+      <c r="A141" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="B141" s="2">
-        <v>971243</v>
+        <v>1496382</v>
       </c>
       <c r="C141" s="2">
-        <v>197259</v>
+        <v>302958</v>
       </c>
       <c r="D141" s="2">
-        <v>773984</v>
+        <v>1193424</v>
       </c>
       <c r="E141" s="5">
         <v>2016</v>
@@ -4576,17 +4821,17 @@
       <c r="J141" s="3"/>
     </row>
     <row r="142" spans="1:10" ht="21">
-      <c r="A142" s="4" t="s">
-        <v>141</v>
+      <c r="A142" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="B142" s="2">
-        <v>55232</v>
+        <v>84984</v>
       </c>
       <c r="C142" s="2">
-        <v>46190</v>
+        <v>70937</v>
       </c>
       <c r="D142" s="2">
-        <v>9042</v>
+        <v>14047</v>
       </c>
       <c r="E142" s="5">
         <v>2016</v>
@@ -4600,17 +4845,17 @@
       <c r="J142" s="3"/>
     </row>
     <row r="143" spans="1:10" ht="21">
-      <c r="A143" s="4" t="s">
-        <v>142</v>
+      <c r="A143" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="B143" s="2">
-        <v>61858</v>
+        <v>95096</v>
       </c>
       <c r="C143" s="2">
-        <v>54218</v>
+        <v>83206</v>
       </c>
       <c r="D143" s="2">
-        <v>7640</v>
+        <v>11889</v>
       </c>
       <c r="E143" s="5">
         <v>2016</v>
@@ -4624,17 +4869,17 @@
       <c r="J143" s="3"/>
     </row>
     <row r="144" spans="1:10" ht="21">
-      <c r="A144" s="4" t="s">
-        <v>143</v>
+      <c r="A144" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="B144" s="2">
-        <v>69924</v>
+        <v>107494</v>
       </c>
       <c r="C144" s="2">
-        <v>60827</v>
+        <v>93389</v>
       </c>
       <c r="D144" s="2">
-        <v>9097</v>
+        <v>14104</v>
       </c>
       <c r="E144" s="5">
         <v>2016</v>
@@ -4648,17 +4893,17 @@
       <c r="J144" s="3"/>
     </row>
     <row r="145" spans="1:10" ht="21">
-      <c r="A145" s="4" t="s">
-        <v>144</v>
+      <c r="A145" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="B145" s="2">
-        <v>53653</v>
+        <v>82370</v>
       </c>
       <c r="C145" s="2">
-        <v>49013</v>
+        <v>75201</v>
       </c>
       <c r="D145" s="2">
-        <v>4640</v>
+        <v>7169</v>
       </c>
       <c r="E145" s="5">
         <v>2016</v>
@@ -4672,17 +4917,17 @@
       <c r="J145" s="3"/>
     </row>
     <row r="146" spans="1:10" ht="21">
-      <c r="A146" s="4" t="s">
-        <v>145</v>
+      <c r="A146" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="B146" s="2">
-        <v>17614</v>
+        <v>27026</v>
       </c>
       <c r="C146" s="2">
-        <v>5258</v>
+        <v>8069</v>
       </c>
       <c r="D146" s="2">
-        <v>12355</v>
+        <v>18958</v>
       </c>
       <c r="E146" s="5">
         <v>2016</v>
@@ -4696,17 +4941,17 @@
       <c r="J146" s="3"/>
     </row>
     <row r="147" spans="1:10" ht="21">
-      <c r="A147" s="4" t="s">
-        <v>146</v>
+      <c r="A147" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="B147" s="2">
-        <v>64101</v>
+        <v>98610</v>
       </c>
       <c r="C147" s="2">
-        <v>31987</v>
+        <v>49334</v>
       </c>
       <c r="D147" s="2">
-        <v>32114</v>
+        <v>49276</v>
       </c>
       <c r="E147" s="5">
         <v>2016</v>
@@ -4720,17 +4965,17 @@
       <c r="J147" s="3"/>
     </row>
     <row r="148" spans="1:10" ht="21">
-      <c r="A148" s="4" t="s">
-        <v>147</v>
+      <c r="A148" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="B148" s="2">
-        <v>83986</v>
+        <v>128974</v>
       </c>
       <c r="C148" s="2">
-        <v>24990</v>
+        <v>38404</v>
       </c>
       <c r="D148" s="2">
-        <v>58996</v>
+        <v>90570</v>
       </c>
       <c r="E148" s="5">
         <v>2016</v>
@@ -4744,17 +4989,17 @@
       <c r="J148" s="3"/>
     </row>
     <row r="149" spans="1:10" ht="21">
-      <c r="A149" s="4" t="s">
-        <v>148</v>
+      <c r="A149" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="B149" s="2">
-        <v>5114</v>
+        <v>7865</v>
       </c>
       <c r="C149" s="2">
-        <v>4142</v>
-      </c>
-      <c r="D149" s="3">
-        <v>972</v>
+        <v>6355</v>
+      </c>
+      <c r="D149" s="2">
+        <v>1509</v>
       </c>
       <c r="E149" s="5">
         <v>2016</v>
@@ -4768,17 +5013,17 @@
       <c r="J149" s="3"/>
     </row>
     <row r="150" spans="1:10" ht="21">
-      <c r="A150" s="4" t="s">
-        <v>149</v>
+      <c r="A150" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="B150" s="2">
-        <v>3647747</v>
+        <v>5599142</v>
       </c>
       <c r="C150" s="2">
-        <v>1764811</v>
+        <v>2708621</v>
       </c>
       <c r="D150" s="2">
-        <v>1882936</v>
+        <v>2890521</v>
       </c>
       <c r="E150" s="5">
         <v>2016</v>
@@ -4792,17 +5037,17 @@
       <c r="J150" s="3"/>
     </row>
     <row r="151" spans="1:10" ht="21">
-      <c r="A151" s="4" t="s">
-        <v>150</v>
+      <c r="A151" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="B151" s="2">
-        <v>482397</v>
+        <v>740453</v>
       </c>
       <c r="C151" s="2">
-        <v>200630</v>
+        <v>307787</v>
       </c>
       <c r="D151" s="2">
-        <v>281766</v>
+        <v>432666</v>
       </c>
       <c r="E151" s="5">
         <v>2016</v>
@@ -4816,17 +5061,17 @@
       <c r="J151" s="3"/>
     </row>
     <row r="152" spans="1:10" ht="21">
-      <c r="A152" s="4" t="s">
-        <v>151</v>
+      <c r="A152" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="B152" s="2">
-        <v>141277</v>
+        <v>217258</v>
       </c>
       <c r="C152" s="2">
-        <v>119349</v>
+        <v>183318</v>
       </c>
       <c r="D152" s="2">
-        <v>21927</v>
+        <v>33939</v>
       </c>
       <c r="E152" s="5">
         <v>2016</v>
@@ -4840,17 +5085,17 @@
       <c r="J152" s="3"/>
     </row>
     <row r="153" spans="1:10" ht="21">
-      <c r="A153" s="4" t="s">
-        <v>152</v>
+      <c r="A153" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="B153" s="2">
-        <v>67948</v>
+        <v>104350</v>
       </c>
       <c r="C153" s="2">
-        <v>63690</v>
+        <v>97740</v>
       </c>
       <c r="D153" s="2">
-        <v>4258</v>
+        <v>6610</v>
       </c>
       <c r="E153" s="5">
         <v>2016</v>
@@ -4864,17 +5109,17 @@
       <c r="J153" s="3"/>
     </row>
     <row r="154" spans="1:10" ht="21">
-      <c r="A154" s="4" t="s">
-        <v>153</v>
+      <c r="A154" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="B154" s="2">
-        <v>583567</v>
+        <v>898249</v>
       </c>
       <c r="C154" s="2">
-        <v>421928</v>
+        <v>648014</v>
       </c>
       <c r="D154" s="2">
-        <v>161638</v>
+        <v>250235</v>
       </c>
       <c r="E154" s="5">
         <v>2016</v>
@@ -4888,17 +5133,17 @@
       <c r="J154" s="3"/>
     </row>
     <row r="155" spans="1:10" ht="21">
-      <c r="A155" s="4" t="s">
-        <v>154</v>
+      <c r="A155" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="B155" s="2">
-        <v>293815</v>
+        <v>453037</v>
       </c>
       <c r="C155" s="2">
-        <v>142638</v>
+        <v>219239</v>
       </c>
       <c r="D155" s="2">
-        <v>151177</v>
+        <v>233798</v>
       </c>
       <c r="E155" s="5">
         <v>2016</v>
@@ -4912,17 +5157,17 @@
       <c r="J155" s="3"/>
     </row>
     <row r="156" spans="1:10" ht="21">
-      <c r="A156" s="4" t="s">
-        <v>155</v>
+      <c r="A156" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="B156" s="2">
-        <v>6756</v>
+        <v>10405</v>
       </c>
       <c r="C156" s="2">
-        <v>4778</v>
+        <v>7357</v>
       </c>
       <c r="D156" s="2">
-        <v>1978</v>
+        <v>3047</v>
       </c>
       <c r="E156" s="5">
         <v>2016</v>
@@ -4936,17 +5181,17 @@
       <c r="J156" s="3"/>
     </row>
     <row r="157" spans="1:10" ht="21">
-      <c r="A157" s="4" t="s">
-        <v>156</v>
+      <c r="A157" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="B157" s="2">
-        <v>5414</v>
+        <v>8352</v>
       </c>
       <c r="C157" s="2">
-        <v>3683</v>
+        <v>5658</v>
       </c>
       <c r="D157" s="2">
-        <v>1731</v>
+        <v>2694</v>
       </c>
       <c r="E157" s="5">
         <v>2016</v>
@@ -4960,8 +5205,8 @@
       <c r="J157" s="3"/>
     </row>
     <row r="158" spans="1:10" ht="21">
-      <c r="A158" s="4" t="s">
-        <v>157</v>
+      <c r="A158" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="B158" s="3">
         <v>0</v>
@@ -4970,7 +5215,7 @@
         <v>0</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E158" s="5">
         <v>2016</v>
@@ -4984,17 +5229,17 @@
       <c r="J158" s="3"/>
     </row>
     <row r="159" spans="1:10" ht="21">
-      <c r="A159" s="4" t="s">
-        <v>158</v>
+      <c r="A159" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="B159" s="2">
-        <v>5514</v>
+        <v>8461</v>
       </c>
       <c r="C159" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D159" s="2">
-        <v>5505</v>
+        <v>8447</v>
       </c>
       <c r="E159" s="5">
         <v>2016</v>
@@ -5008,17 +5253,17 @@
       <c r="J159" s="3"/>
     </row>
     <row r="160" spans="1:10" ht="21">
-      <c r="A160" s="4" t="s">
-        <v>159</v>
+      <c r="A160" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="B160" s="2">
-        <v>32800</v>
+        <v>50394</v>
       </c>
       <c r="C160" s="2">
-        <v>21055</v>
+        <v>32322</v>
       </c>
       <c r="D160" s="2">
-        <v>11745</v>
+        <v>18072</v>
       </c>
       <c r="E160" s="5">
         <v>2016</v>
@@ -5032,17 +5277,17 @@
       <c r="J160" s="3"/>
     </row>
     <row r="161" spans="1:10" ht="21">
-      <c r="A161" s="4" t="s">
-        <v>160</v>
+      <c r="A161" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="B161" s="2">
-        <v>7937</v>
+        <v>12177</v>
       </c>
       <c r="C161" s="2">
-        <v>7864</v>
+        <v>12063</v>
       </c>
       <c r="D161" s="3">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="E161" s="5">
         <v>2016</v>
@@ -5056,17 +5301,17 @@
       <c r="J161" s="3"/>
     </row>
     <row r="162" spans="1:10" ht="21">
-      <c r="A162" s="4" t="s">
-        <v>161</v>
+      <c r="A162" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E162" s="5">
         <v>2016</v>
@@ -5080,17 +5325,17 @@
       <c r="J162" s="3"/>
     </row>
     <row r="163" spans="1:10" ht="21">
-      <c r="A163" s="4" t="s">
-        <v>162</v>
+      <c r="A163" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="B163" s="2">
-        <v>11290162</v>
+        <v>17329296</v>
       </c>
       <c r="C163" s="2">
-        <v>5852508</v>
+        <v>8979959</v>
       </c>
       <c r="D163" s="2">
-        <v>5437654</v>
+        <v>8349338</v>
       </c>
       <c r="E163" s="5">
         <v>2016</v>
@@ -5104,14 +5349,14 @@
       <c r="J163" s="3"/>
     </row>
     <row r="164" spans="1:10" ht="21">
-      <c r="A164" s="4" t="s">
-        <v>163</v>
+      <c r="A164" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="B164" s="2">
-        <v>1431</v>
+        <v>2195</v>
       </c>
       <c r="C164" s="2">
-        <v>1431</v>
+        <v>2194</v>
       </c>
       <c r="D164" s="3">
         <v>0</v>
@@ -5128,17 +5373,17 @@
       <c r="J164" s="3"/>
     </row>
     <row r="165" spans="1:10" ht="21">
-      <c r="A165" s="4" t="s">
-        <v>164</v>
+      <c r="A165" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="B165" s="2">
-        <v>503036</v>
+        <v>772041</v>
       </c>
       <c r="C165" s="2">
-        <v>421803</v>
+        <v>647132</v>
       </c>
       <c r="D165" s="2">
-        <v>81233</v>
+        <v>124909</v>
       </c>
       <c r="E165" s="5">
         <v>2016</v>
@@ -5152,17 +5397,17 @@
       <c r="J165" s="3"/>
     </row>
     <row r="166" spans="1:10" ht="21">
-      <c r="A166" s="4" t="s">
-        <v>165</v>
+      <c r="A166" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="B166" s="2">
-        <v>1928</v>
+        <v>2958</v>
       </c>
       <c r="C166" s="2">
-        <v>1927</v>
+        <v>2956</v>
       </c>
       <c r="D166" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E166" s="5">
         <v>2016</v>
@@ -5176,17 +5421,17 @@
       <c r="J166" s="3"/>
     </row>
     <row r="167" spans="1:10" ht="21">
-      <c r="A167" s="4" t="s">
-        <v>166</v>
+      <c r="A167" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="B167" s="2">
-        <v>7715</v>
+        <v>11837</v>
       </c>
       <c r="C167" s="2">
-        <v>4066</v>
+        <v>6238</v>
       </c>
       <c r="D167" s="2">
-        <v>3649</v>
+        <v>5599</v>
       </c>
       <c r="E167" s="5">
         <v>2016</v>
@@ -5200,17 +5445,17 @@
       <c r="J167" s="3"/>
     </row>
     <row r="168" spans="1:10" ht="21">
-      <c r="A168" s="4" t="s">
-        <v>167</v>
+      <c r="A168" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="B168" s="2">
-        <v>5492</v>
+        <v>8427</v>
       </c>
       <c r="C168" s="2">
-        <v>3544</v>
+        <v>5438</v>
       </c>
       <c r="D168" s="2">
-        <v>1948</v>
+        <v>2989</v>
       </c>
       <c r="E168" s="5">
         <v>2016</v>
@@ -5224,14 +5469,14 @@
       <c r="J168" s="3"/>
     </row>
     <row r="169" spans="1:10" ht="21">
-      <c r="A169" s="4" t="s">
-        <v>168</v>
+      <c r="A169" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="B169" s="2">
-        <v>9070</v>
+        <v>13915</v>
       </c>
       <c r="C169" s="2">
-        <v>9070</v>
+        <v>13915</v>
       </c>
       <c r="D169" s="3">
         <v>0</v>
@@ -5248,17 +5493,17 @@
       <c r="J169" s="3"/>
     </row>
     <row r="170" spans="1:10" ht="21">
-      <c r="A170" s="4" t="s">
-        <v>169</v>
+      <c r="A170" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="B170" s="2">
-        <v>42648</v>
+        <v>65383</v>
       </c>
       <c r="C170" s="2">
-        <v>32992</v>
+        <v>50571</v>
       </c>
       <c r="D170" s="2">
-        <v>9655</v>
+        <v>14812</v>
       </c>
       <c r="E170" s="5">
         <v>2016</v>
@@ -5272,17 +5517,17 @@
       <c r="J170" s="3"/>
     </row>
     <row r="171" spans="1:10" ht="21">
-      <c r="A171" s="4" t="s">
-        <v>170</v>
+      <c r="A171" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="B171" s="3">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="C171" s="3">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E171" s="5">
         <v>2016</v>
@@ -5296,17 +5541,17 @@
       <c r="J171" s="3"/>
     </row>
     <row r="172" spans="1:10" ht="21">
-      <c r="A172" s="4" t="s">
-        <v>171</v>
+      <c r="A172" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="B172" s="2">
-        <v>3718304</v>
+        <v>5707845</v>
       </c>
       <c r="C172" s="2">
-        <v>1096286</v>
+        <v>1682275</v>
       </c>
       <c r="D172" s="2">
-        <v>2622019</v>
+        <v>4025570</v>
       </c>
       <c r="E172" s="5">
         <v>2016</v>
@@ -5320,17 +5565,17 @@
       <c r="J172" s="3"/>
     </row>
     <row r="173" spans="1:10" ht="21">
-      <c r="A173" s="4" t="s">
-        <v>172</v>
+      <c r="A173" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="B173" s="3">
-        <v>559</v>
+        <v>858</v>
       </c>
       <c r="C173" s="3">
-        <v>559</v>
+        <v>858</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E173" s="5">
         <v>2016</v>
@@ -5344,17 +5589,17 @@
       <c r="J173" s="3"/>
     </row>
     <row r="174" spans="1:10" ht="21">
-      <c r="A174" s="4" t="s">
-        <v>173</v>
+      <c r="A174" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="B174" s="2">
-        <v>1753394</v>
+        <v>2691585</v>
       </c>
       <c r="C174" s="2">
-        <v>660715</v>
+        <v>1013699</v>
       </c>
       <c r="D174" s="2">
-        <v>1092679</v>
+        <v>1677886</v>
       </c>
       <c r="E174" s="5">
         <v>2016</v>
@@ -5368,17 +5613,17 @@
       <c r="J174" s="3"/>
     </row>
     <row r="175" spans="1:10" ht="21">
-      <c r="A175" s="4" t="s">
-        <v>174</v>
+      <c r="A175" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="B175" s="2">
-        <v>502283</v>
+        <v>770730</v>
       </c>
       <c r="C175" s="2">
-        <v>337763</v>
+        <v>518307</v>
       </c>
       <c r="D175" s="2">
-        <v>164520</v>
+        <v>252423</v>
       </c>
       <c r="E175" s="5">
         <v>2016</v>
@@ -5392,17 +5637,17 @@
       <c r="J175" s="3"/>
     </row>
     <row r="176" spans="1:10" ht="21">
-      <c r="A176" s="4" t="s">
-        <v>175</v>
+      <c r="A176" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="B176" s="2">
-        <v>3023</v>
+        <v>4638</v>
       </c>
       <c r="C176" s="2">
-        <v>2989</v>
+        <v>4586</v>
       </c>
       <c r="D176" s="3">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E176" s="5">
         <v>2016</v>
@@ -5416,17 +5661,17 @@
       <c r="J176" s="3"/>
     </row>
     <row r="177" spans="1:10" ht="21">
-      <c r="A177" s="4" t="s">
-        <v>176</v>
+      <c r="A177" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="B177" s="2">
-        <v>104714</v>
+        <v>160733</v>
       </c>
       <c r="C177" s="2">
-        <v>73659</v>
+        <v>113078</v>
       </c>
       <c r="D177" s="2">
-        <v>31054</v>
+        <v>47655</v>
       </c>
       <c r="E177" s="5">
         <v>2016</v>
@@ -5440,17 +5685,17 @@
       <c r="J177" s="3"/>
     </row>
     <row r="178" spans="1:10" ht="21">
-      <c r="A178" s="4" t="s">
-        <v>177</v>
+      <c r="A178" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="B178" s="2">
-        <v>145233</v>
+        <v>222917</v>
       </c>
       <c r="C178" s="2">
-        <v>124051</v>
+        <v>190329</v>
       </c>
       <c r="D178" s="2">
-        <v>21182</v>
+        <v>32587</v>
       </c>
       <c r="E178" s="5">
         <v>2016</v>
@@ -5464,17 +5709,17 @@
       <c r="J178" s="3"/>
     </row>
     <row r="179" spans="1:10" ht="21">
-      <c r="A179" s="4" t="s">
-        <v>178</v>
+      <c r="A179" s="6" t="s">
+        <v>183</v>
       </c>
       <c r="B179" s="2">
-        <v>1767</v>
+        <v>2711</v>
       </c>
       <c r="C179" s="2">
-        <v>1767</v>
+        <v>2711</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E179" s="5">
         <v>2016</v>
@@ -5488,17 +5733,17 @@
       <c r="J179" s="3"/>
     </row>
     <row r="180" spans="1:10" ht="21">
-      <c r="A180" s="4" t="s">
-        <v>179</v>
+      <c r="A180" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="B180" s="2">
-        <v>95410</v>
+        <v>146390</v>
       </c>
       <c r="C180" s="2">
-        <v>89912</v>
+        <v>137917</v>
       </c>
       <c r="D180" s="2">
-        <v>5498</v>
+        <v>8472</v>
       </c>
       <c r="E180" s="5">
         <v>2016</v>
@@ -5512,17 +5757,17 @@
       <c r="J180" s="3"/>
     </row>
     <row r="181" spans="1:10" ht="21">
-      <c r="A181" s="4" t="s">
-        <v>180</v>
+      <c r="A181" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="B181" s="2">
-        <v>169399</v>
+        <v>260011</v>
       </c>
       <c r="C181" s="2">
-        <v>114732</v>
+        <v>176129</v>
       </c>
       <c r="D181" s="2">
-        <v>54667</v>
+        <v>83882</v>
       </c>
       <c r="E181" s="5">
         <v>2016</v>
@@ -5536,17 +5781,17 @@
       <c r="J181" s="3"/>
     </row>
     <row r="182" spans="1:10" ht="21">
-      <c r="A182" s="4" t="s">
-        <v>181</v>
+      <c r="A182" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="B182" s="2">
-        <v>1415</v>
+        <v>2172</v>
       </c>
       <c r="C182" s="2">
-        <v>1415</v>
+        <v>2172</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E182" s="5">
         <v>2016</v>
@@ -5560,17 +5805,17 @@
       <c r="J182" s="3"/>
     </row>
     <row r="183" spans="1:10" ht="21">
-      <c r="A183" s="4" t="s">
-        <v>182</v>
+      <c r="A183" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="B183" s="3">
-        <v>381</v>
+        <v>585</v>
       </c>
       <c r="C183" s="3">
-        <v>381</v>
+        <v>585</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E183" s="5">
         <v>2016</v>
@@ -5584,17 +5829,17 @@
       <c r="J183" s="3"/>
     </row>
     <row r="184" spans="1:10" ht="21">
-      <c r="A184" s="4" t="s">
-        <v>183</v>
+      <c r="A184" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="B184" s="2">
-        <v>1814</v>
+        <v>2783</v>
       </c>
       <c r="C184" s="2">
-        <v>1814</v>
+        <v>2783</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E184" s="5">
         <v>2016</v>
@@ -5608,17 +5853,17 @@
       <c r="J184" s="3"/>
     </row>
     <row r="185" spans="1:10" ht="21">
-      <c r="A185" s="4" t="s">
-        <v>184</v>
+      <c r="A185" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="B185" s="2">
-        <v>111253</v>
+        <v>170711</v>
       </c>
       <c r="C185" s="2">
-        <v>101200</v>
+        <v>155283</v>
       </c>
       <c r="D185" s="2">
-        <v>10054</v>
+        <v>15428</v>
       </c>
       <c r="E185" s="5">
         <v>2016</v>
@@ -5632,17 +5877,17 @@
       <c r="J185" s="3"/>
     </row>
     <row r="186" spans="1:10" ht="21">
-      <c r="A186" s="4" t="s">
-        <v>185</v>
+      <c r="A186" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="B186" s="2">
-        <v>13104</v>
+        <v>20138</v>
       </c>
       <c r="C186" s="2">
-        <v>11906</v>
+        <v>18264</v>
       </c>
       <c r="D186" s="2">
-        <v>1198</v>
+        <v>1873</v>
       </c>
       <c r="E186" s="5">
         <v>2016</v>
@@ -5656,17 +5901,17 @@
       <c r="J186" s="3"/>
     </row>
     <row r="187" spans="1:10" ht="21">
-      <c r="A187" s="4" t="s">
-        <v>186</v>
+      <c r="A187" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="B187" s="2">
-        <v>25445</v>
+        <v>39041</v>
       </c>
       <c r="C187" s="2">
-        <v>25219</v>
+        <v>38694</v>
       </c>
       <c r="D187" s="3">
-        <v>226</v>
+        <v>347</v>
       </c>
       <c r="E187" s="5">
         <v>2016</v>
@@ -5680,17 +5925,17 @@
       <c r="J187" s="3"/>
     </row>
     <row r="188" spans="1:10" ht="21">
-      <c r="A188" s="4" t="s">
-        <v>187</v>
+      <c r="A188" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="B188" s="2">
-        <v>33230</v>
+        <v>50972</v>
       </c>
       <c r="C188" s="2">
-        <v>32291</v>
-      </c>
-      <c r="D188" s="3">
-        <v>940</v>
+        <v>49530</v>
+      </c>
+      <c r="D188" s="2">
+        <v>1442</v>
       </c>
       <c r="E188" s="5">
         <v>2016</v>
@@ -5704,17 +5949,17 @@
       <c r="J188" s="3"/>
     </row>
     <row r="189" spans="1:10" ht="21">
-      <c r="A189" s="4" t="s">
-        <v>188</v>
+      <c r="A189" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="B189" s="2">
-        <v>28341</v>
+        <v>43479</v>
       </c>
       <c r="C189" s="2">
-        <v>28199</v>
+        <v>43260</v>
       </c>
       <c r="D189" s="3">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="E189" s="5">
         <v>2016</v>
@@ -5728,17 +5973,17 @@
       <c r="J189" s="3"/>
     </row>
     <row r="190" spans="1:10" ht="21">
-      <c r="A190" s="4" t="s">
-        <v>189</v>
+      <c r="A190" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="B190" s="2">
-        <v>1476</v>
+        <v>2265</v>
       </c>
       <c r="C190" s="2">
-        <v>1476</v>
+        <v>2265</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E190" s="5">
         <v>2016</v>
@@ -5752,17 +5997,17 @@
       <c r="J190" s="3"/>
     </row>
     <row r="191" spans="1:10" ht="21">
-      <c r="A191" s="4" t="s">
-        <v>190</v>
+      <c r="A191" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="B191" s="2">
-        <v>2153768</v>
+        <v>3305345</v>
       </c>
       <c r="C191" s="2">
-        <v>1643572</v>
+        <v>2521894</v>
       </c>
       <c r="D191" s="2">
-        <v>510196</v>
+        <v>783451</v>
       </c>
       <c r="E191" s="5">
         <v>2016</v>
@@ -5776,17 +6021,17 @@
       <c r="J191" s="3"/>
     </row>
     <row r="192" spans="1:10" ht="21">
-      <c r="A192" s="4" t="s">
-        <v>191</v>
+      <c r="A192" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="B192" s="3">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="C192" s="3">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E192" s="5">
         <v>2016</v>
@@ -5800,17 +6045,17 @@
       <c r="J192" s="3"/>
     </row>
     <row r="193" spans="1:10" ht="21">
-      <c r="A193" s="4" t="s">
-        <v>192</v>
+      <c r="A193" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="B193" s="2">
-        <v>37589</v>
+        <v>57676</v>
       </c>
       <c r="C193" s="2">
-        <v>36241</v>
+        <v>55607</v>
       </c>
       <c r="D193" s="2">
-        <v>1348</v>
+        <v>2069</v>
       </c>
       <c r="E193" s="5">
         <v>2016</v>
@@ -5824,17 +6069,17 @@
       <c r="J193" s="3"/>
     </row>
     <row r="194" spans="1:10" ht="21">
-      <c r="A194" s="4" t="s">
-        <v>193</v>
+      <c r="A194" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="B194" s="2">
-        <v>305212</v>
+        <v>468221</v>
       </c>
       <c r="C194" s="2">
-        <v>303773</v>
+        <v>466014</v>
       </c>
       <c r="D194" s="2">
-        <v>1439</v>
+        <v>2207</v>
       </c>
       <c r="E194" s="5">
         <v>2016</v>
@@ -5848,17 +6093,17 @@
       <c r="J194" s="3"/>
     </row>
     <row r="195" spans="1:10" ht="21">
-      <c r="A195" s="4" t="s">
-        <v>194</v>
+      <c r="A195" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="B195" s="2">
-        <v>55069</v>
+        <v>84479</v>
       </c>
       <c r="C195" s="2">
-        <v>53786</v>
+        <v>82511</v>
       </c>
       <c r="D195" s="2">
-        <v>1282</v>
+        <v>1968</v>
       </c>
       <c r="E195" s="5">
         <v>2016</v>
@@ -5872,17 +6117,17 @@
       <c r="J195" s="3"/>
     </row>
     <row r="196" spans="1:10" ht="21">
-      <c r="A196" s="4" t="s">
-        <v>195</v>
+      <c r="A196" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="B196" s="2">
-        <v>764558</v>
+        <v>1173823</v>
       </c>
       <c r="C196" s="2">
-        <v>328219</v>
+        <v>503605</v>
       </c>
       <c r="D196" s="2">
-        <v>436339</v>
+        <v>670217</v>
       </c>
       <c r="E196" s="5">
         <v>2016</v>
@@ -5896,17 +6141,17 @@
       <c r="J196" s="3"/>
     </row>
     <row r="197" spans="1:10" ht="21">
-      <c r="A197" s="4" t="s">
-        <v>196</v>
+      <c r="A197" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="B197" s="2">
-        <v>77961</v>
+        <v>120160</v>
       </c>
       <c r="C197" s="2">
-        <v>31362</v>
+        <v>48113</v>
       </c>
       <c r="D197" s="2">
-        <v>46598</v>
+        <v>72047</v>
       </c>
       <c r="E197" s="5">
         <v>2016</v>
@@ -5920,17 +6165,17 @@
       <c r="J197" s="3"/>
     </row>
     <row r="198" spans="1:10" ht="21">
-      <c r="A198" s="4" t="s">
-        <v>197</v>
+      <c r="A198" s="6" t="s">
+        <v>202</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E198" s="5">
         <v>2016</v>
@@ -5944,17 +6189,17 @@
       <c r="J198" s="3"/>
     </row>
     <row r="199" spans="1:10" ht="21">
-      <c r="A199" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B199" s="3">
-        <v>912</v>
-      </c>
-      <c r="C199" s="3">
-        <v>912</v>
+      <c r="A199" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B199" s="2">
+        <v>1400</v>
+      </c>
+      <c r="C199" s="2">
+        <v>1399</v>
       </c>
       <c r="D199" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E199" s="5">
         <v>2016</v>
@@ -5968,17 +6213,17 @@
       <c r="J199" s="3"/>
     </row>
     <row r="200" spans="1:10" ht="21">
-      <c r="A200" s="4" t="s">
-        <v>199</v>
+      <c r="A200" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="B200" s="3">
-        <v>449</v>
+        <v>688</v>
       </c>
       <c r="C200" s="3">
-        <v>449</v>
+        <v>688</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E200" s="5">
         <v>2016</v>
@@ -5992,17 +6237,17 @@
       <c r="J200" s="3"/>
     </row>
     <row r="201" spans="1:10" ht="21">
-      <c r="A201" s="4" t="s">
-        <v>200</v>
+      <c r="A201" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="B201" s="3">
-        <v>416</v>
+        <v>638</v>
       </c>
       <c r="C201" s="3">
-        <v>410</v>
+        <v>630</v>
       </c>
       <c r="D201" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E201" s="5">
         <v>2016</v>
@@ -6016,17 +6261,17 @@
       <c r="J201" s="3"/>
     </row>
     <row r="202" spans="1:10" ht="21">
-      <c r="A202" s="4" t="s">
-        <v>201</v>
+      <c r="A202" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="B202" s="2">
-        <v>40769</v>
+        <v>62553</v>
       </c>
       <c r="C202" s="2">
-        <v>38229</v>
+        <v>58655</v>
       </c>
       <c r="D202" s="2">
-        <v>2540</v>
+        <v>3898</v>
       </c>
       <c r="E202" s="5">
         <v>2016</v>
@@ -6040,17 +6285,17 @@
       <c r="J202" s="3"/>
     </row>
     <row r="203" spans="1:10" ht="21">
-      <c r="A203" s="4" t="s">
-        <v>202</v>
+      <c r="A203" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="B203" s="2">
-        <v>13206</v>
+        <v>20259</v>
       </c>
       <c r="C203" s="2">
-        <v>10522</v>
+        <v>16139</v>
       </c>
       <c r="D203" s="2">
-        <v>2684</v>
+        <v>4120</v>
       </c>
       <c r="E203" s="5">
         <v>2016</v>
@@ -6064,17 +6309,17 @@
       <c r="J203" s="3"/>
     </row>
     <row r="204" spans="1:10" ht="21">
-      <c r="A204" s="4" t="s">
-        <v>203</v>
+      <c r="A204" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="B204" s="2">
-        <v>29139</v>
+        <v>44709</v>
       </c>
       <c r="C204" s="2">
-        <v>15704</v>
+        <v>24096</v>
       </c>
       <c r="D204" s="2">
-        <v>13434</v>
+        <v>20613</v>
       </c>
       <c r="E204" s="5">
         <v>2016</v>
@@ -6088,17 +6333,17 @@
       <c r="J204" s="3"/>
     </row>
     <row r="205" spans="1:10" ht="21">
-      <c r="A205" s="4" t="s">
-        <v>204</v>
+      <c r="A205" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="B205" s="3">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C205" s="3">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E205" s="5">
         <v>2016</v>
@@ -6112,17 +6357,17 @@
       <c r="J205" s="3"/>
     </row>
     <row r="206" spans="1:10" ht="21">
-      <c r="A206" s="4" t="s">
-        <v>205</v>
+      <c r="A206" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="B206" s="2">
-        <v>164686</v>
+        <v>252688</v>
       </c>
       <c r="C206" s="2">
-        <v>86069</v>
+        <v>132067</v>
       </c>
       <c r="D206" s="2">
-        <v>78616</v>
+        <v>120621</v>
       </c>
       <c r="E206" s="5">
         <v>2016</v>
@@ -6136,17 +6381,17 @@
       <c r="J206" s="3"/>
     </row>
     <row r="207" spans="1:10" ht="21">
-      <c r="A207" s="4" t="s">
-        <v>206</v>
+      <c r="A207" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="B207" s="2">
-        <v>361759</v>
+        <v>555036</v>
       </c>
       <c r="C207" s="2">
-        <v>119317</v>
+        <v>183110</v>
       </c>
       <c r="D207" s="2">
-        <v>242442</v>
+        <v>371926</v>
       </c>
       <c r="E207" s="5">
         <v>2016</v>
@@ -6160,17 +6405,17 @@
       <c r="J207" s="3"/>
     </row>
     <row r="208" spans="1:10" ht="21">
-      <c r="A208" s="4" t="s">
-        <v>207</v>
+      <c r="A208" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="B208" s="3">
-        <v>261</v>
+        <v>401</v>
       </c>
       <c r="C208" s="3">
-        <v>261</v>
+        <v>401</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E208" s="5">
         <v>2016</v>
@@ -6184,17 +6429,17 @@
       <c r="J208" s="3"/>
     </row>
     <row r="209" spans="1:10" ht="21">
-      <c r="A209" s="4" t="s">
-        <v>208</v>
+      <c r="A209" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="B209" s="3">
-        <v>244</v>
+        <v>374</v>
       </c>
       <c r="C209" s="3">
-        <v>216</v>
+        <v>331</v>
       </c>
       <c r="D209" s="3">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E209" s="5">
         <v>2016</v>
@@ -6208,8 +6453,8 @@
       <c r="J209" s="3"/>
     </row>
     <row r="210" spans="1:10" ht="21">
-      <c r="A210" s="4" t="s">
-        <v>209</v>
+      <c r="A210" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="B210" s="3">
         <v>0</v>
@@ -6218,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E210" s="5">
         <v>2016</v>
@@ -6232,17 +6477,17 @@
       <c r="J210" s="3"/>
     </row>
     <row r="211" spans="1:10" ht="21">
-      <c r="A211" s="4" t="s">
-        <v>210</v>
+      <c r="A211" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="B211" s="2">
-        <v>2064</v>
+        <v>3166</v>
       </c>
       <c r="C211" s="2">
-        <v>2064</v>
+        <v>3166</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E211" s="5">
         <v>2016</v>
@@ -6256,17 +6501,17 @@
       <c r="J211" s="3"/>
     </row>
     <row r="212" spans="1:10" ht="21">
-      <c r="A212" s="4" t="s">
-        <v>211</v>
+      <c r="A212" s="6" t="s">
+        <v>216</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E212" s="5">
         <v>2016</v>
@@ -6280,17 +6525,17 @@
       <c r="J212" s="3"/>
     </row>
     <row r="213" spans="1:10" ht="21">
-      <c r="A213" s="4" t="s">
-        <v>212</v>
+      <c r="A213" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="B213" s="2">
-        <v>28971693</v>
+        <v>44470580</v>
       </c>
       <c r="C213" s="2">
-        <v>20617284</v>
+        <v>31636957</v>
       </c>
       <c r="D213" s="2">
-        <v>8354410</v>
+        <v>12833623</v>
       </c>
       <c r="E213" s="5">
         <v>2016</v>
@@ -6304,17 +6549,17 @@
       <c r="J213" s="3"/>
     </row>
     <row r="214" spans="1:10" ht="21">
-      <c r="A214" s="4" t="s">
-        <v>213</v>
+      <c r="A214" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="B214" s="2">
-        <v>2347307</v>
+        <v>3603557</v>
       </c>
       <c r="C214" s="2">
-        <v>1417496</v>
+        <v>2175589</v>
       </c>
       <c r="D214" s="2">
-        <v>929811</v>
+        <v>1427968</v>
       </c>
       <c r="E214" s="5">
         <v>2016</v>
@@ -6328,17 +6573,17 @@
       <c r="J214" s="3"/>
     </row>
     <row r="215" spans="1:10" ht="21">
-      <c r="A215" s="4" t="s">
-        <v>214</v>
+      <c r="A215" s="6" t="s">
+        <v>219</v>
       </c>
       <c r="B215" s="2">
-        <v>26619860</v>
+        <v>40860077</v>
       </c>
       <c r="C215" s="2">
-        <v>19199181</v>
+        <v>29460437</v>
       </c>
       <c r="D215" s="2">
-        <v>7420679</v>
+        <v>11399639</v>
       </c>
       <c r="E215" s="5">
         <v>2016</v>
@@ -6352,17 +6597,17 @@
       <c r="J215" s="3"/>
     </row>
     <row r="216" spans="1:10" ht="21">
-      <c r="A216" s="4" t="s">
-        <v>215</v>
+      <c r="A216" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="B216" s="2">
-        <v>3917</v>
+        <v>6012</v>
       </c>
       <c r="C216" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D216" s="2">
-        <v>3916</v>
+        <v>6010</v>
       </c>
       <c r="E216" s="5">
         <v>2016</v>
@@ -6376,17 +6621,17 @@
       <c r="J216" s="3"/>
     </row>
     <row r="217" spans="1:10" ht="21">
-      <c r="A217" s="4" t="s">
-        <v>216</v>
+      <c r="A217" s="6" t="s">
+        <v>221</v>
       </c>
       <c r="B217" s="3">
-        <v>600</v>
+        <v>921</v>
       </c>
       <c r="C217" s="3">
-        <v>597</v>
+        <v>915</v>
       </c>
       <c r="D217" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E217" s="5">
         <v>2016</v>
@@ -6400,17 +6645,17 @@
       <c r="J217" s="3"/>
     </row>
     <row r="218" spans="1:10" ht="21">
-      <c r="A218" s="4" t="s">
-        <v>217</v>
+      <c r="A218" s="6" t="s">
+        <v>222</v>
       </c>
       <c r="B218" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C218" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E218" s="5">
         <v>2016</v>
@@ -6424,17 +6669,17 @@
       <c r="J218" s="3"/>
     </row>
     <row r="219" spans="1:10" ht="21">
-      <c r="A219" s="4" t="s">
-        <v>218</v>
+      <c r="A219" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="B219" s="2">
-        <v>6248623</v>
+        <v>9597257</v>
       </c>
       <c r="C219" s="2">
-        <v>2299138</v>
+        <v>3530323</v>
       </c>
       <c r="D219" s="2">
-        <v>3949484</v>
+        <v>6066933</v>
       </c>
       <c r="E219" s="5">
         <v>2016</v>
@@ -6448,17 +6693,17 @@
       <c r="J219" s="3"/>
     </row>
     <row r="220" spans="1:10" ht="21">
-      <c r="A220" s="4" t="s">
-        <v>219</v>
+      <c r="A220" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="B220" s="2">
-        <v>5239277</v>
+        <v>8046792</v>
       </c>
       <c r="C220" s="2">
-        <v>1807403</v>
+        <v>2775474</v>
       </c>
       <c r="D220" s="2">
-        <v>3431874</v>
+        <v>5271318</v>
       </c>
       <c r="E220" s="5">
         <v>2016</v>
@@ -6472,17 +6717,17 @@
       <c r="J220" s="3"/>
     </row>
     <row r="221" spans="1:10" ht="21">
-      <c r="A221" s="4" t="s">
-        <v>220</v>
+      <c r="A221" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="B221" s="3">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="C221" s="3">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="D221" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E221" s="5">
         <v>2016</v>
@@ -6496,17 +6741,17 @@
       <c r="J221" s="3"/>
     </row>
     <row r="222" spans="1:10" ht="21">
-      <c r="A222" s="4" t="s">
-        <v>221</v>
+      <c r="A222" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="B222" s="2">
-        <v>25078</v>
+        <v>38507</v>
       </c>
       <c r="C222" s="2">
-        <v>24814</v>
+        <v>38101</v>
       </c>
       <c r="D222" s="3">
-        <v>265</v>
+        <v>406</v>
       </c>
       <c r="E222" s="5">
         <v>2016</v>
@@ -6520,17 +6765,17 @@
       <c r="J222" s="3"/>
     </row>
     <row r="223" spans="1:10" ht="21">
-      <c r="A223" s="4" t="s">
-        <v>222</v>
+      <c r="A223" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E223" s="5">
         <v>2016</v>
@@ -6544,17 +6789,17 @@
       <c r="J223" s="3"/>
     </row>
     <row r="224" spans="1:10" ht="21">
-      <c r="A224" s="4" t="s">
-        <v>223</v>
+      <c r="A224" s="6" t="s">
+        <v>228</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E224" s="5">
         <v>2016</v>
@@ -6568,17 +6813,17 @@
       <c r="J224" s="3"/>
     </row>
     <row r="225" spans="1:10" ht="21">
-      <c r="A225" s="4" t="s">
-        <v>224</v>
+      <c r="A225" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="B225" s="3">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="C225" s="3">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="D225" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E225" s="5">
         <v>2016</v>
@@ -6592,17 +6837,17 @@
       <c r="J225" s="3"/>
     </row>
     <row r="226" spans="1:10" ht="21">
-      <c r="A226" s="4" t="s">
-        <v>225</v>
+      <c r="A226" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="B226" s="2">
-        <v>20238</v>
+        <v>31054</v>
       </c>
       <c r="C226" s="2">
-        <v>4500</v>
+        <v>6908</v>
       </c>
       <c r="D226" s="2">
-        <v>15738</v>
+        <v>24146</v>
       </c>
       <c r="E226" s="5">
         <v>2016</v>
@@ -6616,17 +6861,17 @@
       <c r="J226" s="3"/>
     </row>
     <row r="227" spans="1:10" ht="21">
-      <c r="A227" s="4" t="s">
-        <v>226</v>
+      <c r="A227" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="B227" s="2">
-        <v>4060</v>
+        <v>6231</v>
       </c>
       <c r="C227" s="2">
-        <v>3964</v>
+        <v>6084</v>
       </c>
       <c r="D227" s="3">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="E227" s="5">
         <v>2016</v>
@@ -6640,17 +6885,17 @@
       <c r="J227" s="3"/>
     </row>
     <row r="228" spans="1:10" ht="21">
-      <c r="A228" s="4" t="s">
-        <v>227</v>
+      <c r="A228" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="B228" s="2">
-        <v>627758</v>
+        <v>964879</v>
       </c>
       <c r="C228" s="2">
-        <v>241304</v>
+        <v>370585</v>
       </c>
       <c r="D228" s="2">
-        <v>386454</v>
+        <v>594294</v>
       </c>
       <c r="E228" s="5">
         <v>2016</v>
@@ -6664,17 +6909,17 @@
       <c r="J228" s="3"/>
     </row>
     <row r="229" spans="1:10" ht="21">
-      <c r="A229" s="4" t="s">
-        <v>228</v>
+      <c r="A229" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="B229" s="3">
-        <v>425</v>
+        <v>652</v>
       </c>
       <c r="C229" s="3">
-        <v>424</v>
+        <v>650</v>
       </c>
       <c r="D229" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E229" s="5">
         <v>2016</v>
@@ -6688,17 +6933,17 @@
       <c r="J229" s="3"/>
     </row>
     <row r="230" spans="1:10" ht="21">
-      <c r="A230" s="4" t="s">
-        <v>229</v>
+      <c r="A230" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="B230" s="2">
-        <v>126920</v>
+        <v>194792</v>
       </c>
       <c r="C230" s="2">
-        <v>28673</v>
+        <v>43990</v>
       </c>
       <c r="D230" s="2">
-        <v>98247</v>
+        <v>150802</v>
       </c>
       <c r="E230" s="5">
         <v>2016</v>
@@ -6712,17 +6957,17 @@
       <c r="J230" s="3"/>
     </row>
     <row r="231" spans="1:10" ht="21">
-      <c r="A231" s="4" t="s">
-        <v>230</v>
+      <c r="A231" s="6" t="s">
+        <v>235</v>
       </c>
       <c r="B231" s="3">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="C231" s="3">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E231" s="5">
         <v>2016</v>
@@ -6736,17 +6981,17 @@
       <c r="J231" s="3"/>
     </row>
     <row r="232" spans="1:10" ht="21">
-      <c r="A232" s="4" t="s">
-        <v>231</v>
+      <c r="A232" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="B232" s="2">
-        <v>19226</v>
+        <v>29520</v>
       </c>
       <c r="C232" s="2">
-        <v>5664</v>
+        <v>8684</v>
       </c>
       <c r="D232" s="2">
-        <v>13563</v>
+        <v>20836</v>
       </c>
       <c r="E232" s="5">
         <v>2016</v>
@@ -6760,17 +7005,17 @@
       <c r="J232" s="3"/>
     </row>
     <row r="233" spans="1:10" ht="21">
-      <c r="A233" s="4" t="s">
-        <v>232</v>
+      <c r="A233" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="B233" s="2">
-        <v>1324</v>
+        <v>2030</v>
       </c>
       <c r="C233" s="2">
-        <v>1324</v>
+        <v>2030</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E233" s="5">
         <v>2016</v>
@@ -6784,17 +7029,17 @@
       <c r="J233" s="3"/>
     </row>
     <row r="234" spans="1:10" ht="21">
-      <c r="A234" s="4" t="s">
-        <v>233</v>
+      <c r="A234" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E234" s="5">
         <v>2016</v>
@@ -6808,17 +7053,17 @@
       <c r="J234" s="3"/>
     </row>
     <row r="235" spans="1:10" ht="21">
-      <c r="A235" s="4" t="s">
-        <v>234</v>
+      <c r="A235" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E235" s="5">
         <v>2016</v>
@@ -6832,17 +7077,17 @@
       <c r="J235" s="3"/>
     </row>
     <row r="236" spans="1:10" ht="21">
-      <c r="A236" s="4" t="s">
-        <v>235</v>
+      <c r="A236" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="B236" s="2">
-        <v>4666</v>
+        <v>7157</v>
       </c>
       <c r="C236" s="2">
-        <v>4664</v>
+        <v>7153</v>
       </c>
       <c r="D236" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E236" s="5">
         <v>2016</v>
@@ -6856,14 +7101,14 @@
       <c r="J236" s="3"/>
     </row>
     <row r="237" spans="1:10" ht="21">
-      <c r="A237" s="4" t="s">
-        <v>236</v>
+      <c r="A237" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="B237" s="2">
-        <v>1011</v>
+        <v>1551</v>
       </c>
       <c r="C237" s="2">
-        <v>1011</v>
+        <v>1550</v>
       </c>
       <c r="D237" s="3">
         <v>0</v>
@@ -6880,17 +7125,17 @@
       <c r="J237" s="3"/>
     </row>
     <row r="238" spans="1:10" ht="21">
-      <c r="A238" s="4" t="s">
-        <v>237</v>
+      <c r="A238" s="6" t="s">
+        <v>242</v>
       </c>
       <c r="B238" s="3">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="C238" s="3">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E238" s="5">
         <v>2016</v>
@@ -6904,17 +7149,17 @@
       <c r="J238" s="3"/>
     </row>
     <row r="239" spans="1:10" ht="21">
-      <c r="A239" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B239" s="3">
-        <v>662</v>
-      </c>
-      <c r="C239" s="3">
-        <v>661</v>
+      <c r="A239" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B239" s="2">
+        <v>1015</v>
+      </c>
+      <c r="C239" s="2">
+        <v>1013</v>
       </c>
       <c r="D239" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E239" s="5">
         <v>2016</v>
@@ -6928,17 +7173,17 @@
       <c r="J239" s="3"/>
     </row>
     <row r="240" spans="1:10" ht="21">
-      <c r="A240" s="4" t="s">
-        <v>239</v>
+      <c r="A240" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="B240" s="2">
-        <v>173319</v>
+        <v>265927</v>
       </c>
       <c r="C240" s="2">
-        <v>170772</v>
+        <v>262020</v>
       </c>
       <c r="D240" s="2">
-        <v>2547</v>
+        <v>3908</v>
       </c>
       <c r="E240" s="5">
         <v>2016</v>
@@ -6952,14 +7197,14 @@
       <c r="J240" s="3"/>
     </row>
     <row r="241" spans="1:10" ht="21">
-      <c r="A241" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B241" s="3">
-        <v>959</v>
-      </c>
-      <c r="C241" s="3">
-        <v>958</v>
+      <c r="A241" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B241" s="2">
+        <v>1471</v>
+      </c>
+      <c r="C241" s="2">
+        <v>1469</v>
       </c>
       <c r="D241" s="3">
         <v>1</v>
@@ -6976,17 +7221,17 @@
       <c r="J241" s="3"/>
     </row>
     <row r="242" spans="1:10" ht="21">
-      <c r="A242" s="4" t="s">
-        <v>241</v>
+      <c r="A242" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="B242" s="2">
-        <v>2786</v>
+        <v>4277</v>
       </c>
       <c r="C242" s="2">
-        <v>2094</v>
-      </c>
-      <c r="D242" s="3">
-        <v>693</v>
+        <v>3214</v>
+      </c>
+      <c r="D242" s="2">
+        <v>1063</v>
       </c>
       <c r="E242" s="5">
         <v>2016</v>
@@ -7000,14 +7245,14 @@
       <c r="J242" s="3"/>
     </row>
     <row r="243" spans="1:10" ht="21">
-      <c r="A243" s="4" t="s">
-        <v>242</v>
+      <c r="A243" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="B243" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C243" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D243" s="3">
         <v>0</v>
@@ -7024,17 +7269,17 @@
       <c r="J243" s="3"/>
     </row>
     <row r="244" spans="1:10" ht="21">
-      <c r="A244" s="4" t="s">
-        <v>243</v>
+      <c r="A244" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="B244" s="3">
-        <v>461</v>
+        <v>707</v>
       </c>
       <c r="C244" s="3">
-        <v>461</v>
+        <v>707</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E244" s="5">
         <v>2016</v>
@@ -7048,17 +7293,17 @@
       <c r="J244" s="3"/>
     </row>
     <row r="245" spans="1:10" ht="21">
-      <c r="A245" s="4" t="s">
-        <v>244</v>
+      <c r="A245" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="B245" s="2">
-        <v>63043</v>
+        <v>96758</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D245" s="2">
-        <v>63043</v>
+        <v>96758</v>
       </c>
       <c r="E245" s="5">
         <v>2016</v>
